--- a/Marionette_connections.xlsx
+++ b/Marionette_connections.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PinFunctions" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="188">
   <si>
     <t>DAC</t>
   </si>
@@ -591,8 +591,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -682,7 +682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,43 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,7 +1358,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1406,13 +1370,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,52 +1385,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1489,19 +1435,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1511,94 +1457,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1619,42 +1499,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1664,91 +1517,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1764,13 +1569,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1782,112 +1587,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1899,76 +1644,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2004,6 +1716,129 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="113">
@@ -2462,486 +2297,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB277"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="570" activePane="bottomLeft"/>
-      <selection activeCell="A2" sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="520" activePane="bottomLeft"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="160" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="4.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="170" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="91" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.125" style="3" customWidth="1"/>
-    <col min="21" max="25" width="4.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4" style="160" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.1640625" style="3" customWidth="1"/>
+    <col min="21" max="25" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" style="91" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4" style="3" customWidth="1"/>
-    <col min="28" max="28" width="10.875" style="3"/>
-    <col min="29" max="29" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.875" style="3"/>
+    <col min="28" max="28" width="10.83203125" style="3"/>
+    <col min="29" max="29" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12.75" thickBot="1">
-      <c r="A1" s="198" t="s">
+    <row r="1" spans="1:28" ht="13" thickBot="1">
+      <c r="A1" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="N1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="O1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="161" t="s">
+      <c r="Q1" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="161" t="s">
+      <c r="R1" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="161" t="s">
+      <c r="S1" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="161" t="s">
+      <c r="T1" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="U1" s="91" t="s">
+      <c r="U1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="91" t="s">
+      <c r="V1" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="91" t="s">
+      <c r="W1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="91" t="s">
+      <c r="X1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="91" t="s">
+      <c r="Y1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="91" t="s">
+      <c r="Z1" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" s="138" t="s">
+      <c r="AA1" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="94" t="s">
+      <c r="AB1" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A2" s="199">
+    <row r="2" spans="1:28" ht="15">
+      <c r="A2" s="162">
         <v>40</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="88">
+      <c r="C2" s="131">
         <v>0</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="182" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="182" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51">
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6">
         <v>0</v>
       </c>
-      <c r="X2" s="51">
+      <c r="X2" s="6">
         <v>0</v>
       </c>
-      <c r="Y2" s="51">
+      <c r="Y2" s="6">
         <v>0</v>
       </c>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="95"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75">
-      <c r="A3" s="200">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="63"/>
+    </row>
+    <row r="3" spans="1:28" ht="15">
+      <c r="A3" s="163">
         <v>41</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="89">
+      <c r="B3" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="50">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="185" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="185" t="s">
+      <c r="R3" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="182" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25">
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5">
         <v>1</v>
       </c>
-      <c r="X3" s="25">
+      <c r="X3" s="5">
         <v>1</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Y3" s="5">
         <v>1</v>
       </c>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="96"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75">
-      <c r="A4" s="200">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="57"/>
+    </row>
+    <row r="4" spans="1:28" ht="15">
+      <c r="A4" s="163">
         <v>42</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="89">
+      <c r="B4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="50">
         <v>2</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="185" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5">
         <v>2</v>
       </c>
-      <c r="X4" s="25">
+      <c r="X4" s="5">
         <v>2</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Y4" s="5">
         <v>2</v>
       </c>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="140"/>
-      <c r="AB4" s="96"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75">
-      <c r="A5" s="200">
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="57"/>
+    </row>
+    <row r="5" spans="1:28" ht="15">
+      <c r="A5" s="163">
         <v>47</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="89">
+      <c r="B5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25" t="s">
+      <c r="C5" s="50">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="185" t="s">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25">
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5">
         <v>3</v>
       </c>
-      <c r="X5" s="25">
+      <c r="X5" s="5">
         <v>3</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Y5" s="5">
         <v>3</v>
       </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="96"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75">
-      <c r="A6" s="200">
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="57"/>
+    </row>
+    <row r="6" spans="1:28" ht="15">
+      <c r="A6" s="163">
         <v>50</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="93">
+      <c r="B6" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="133">
         <v>4</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="134"/>
+      <c r="E6" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53" t="s">
+      <c r="F6" s="135"/>
+      <c r="G6" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53">
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135">
         <v>4</v>
       </c>
-      <c r="X6" s="53">
+      <c r="X6" s="135">
         <v>4</v>
       </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53">
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135">
         <v>1</v>
       </c>
-      <c r="AA6" s="141"/>
-      <c r="AB6" s="97"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75">
-      <c r="A7" s="200">
+      <c r="AA6" s="136"/>
+      <c r="AB6" s="137"/>
+    </row>
+    <row r="7" spans="1:28" ht="15">
+      <c r="A7" s="163">
         <v>51</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="93">
+      <c r="B7" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="133">
         <v>5</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53">
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135">
         <v>5</v>
       </c>
-      <c r="X7" s="53">
+      <c r="X7" s="135">
         <v>5</v>
       </c>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="141"/>
-      <c r="AB7" s="97"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75">
-      <c r="A8" s="200">
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="136">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="137"/>
+    </row>
+    <row r="8" spans="1:28" ht="15">
+      <c r="A8" s="163">
         <v>52</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="89">
+      <c r="B8" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="50">
         <v>6</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5">
         <v>6</v>
       </c>
-      <c r="X8" s="25">
+      <c r="X8" s="5">
         <v>6</v>
       </c>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="96"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75">
-      <c r="A9" s="200">
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="57"/>
+    </row>
+    <row r="9" spans="1:28" ht="15">
+      <c r="A9" s="163">
         <v>53</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="89">
+      <c r="B9" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="50">
         <v>7</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="185" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="R9" s="185" t="s">
+      <c r="R9" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25">
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5">
         <v>7</v>
       </c>
-      <c r="X9" s="25">
+      <c r="X9" s="5">
         <v>7</v>
       </c>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="96"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75">
-      <c r="A10" s="200">
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="57"/>
+    </row>
+    <row r="10" spans="1:28" ht="15">
+      <c r="A10" s="163">
         <v>119</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="80">
+      <c r="B10" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="50">
         <v>8</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2967,19 +2818,21 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="98"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75">
-      <c r="A11" s="200">
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="57"/>
+    </row>
+    <row r="11" spans="1:28" ht="15">
+      <c r="A11" s="163">
         <v>120</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="80">
+      <c r="B11" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="50">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -3003,19 +2856,21 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="142"/>
-      <c r="AB11" s="98"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75">
-      <c r="A12" s="200">
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="57"/>
+    </row>
+    <row r="12" spans="1:28" ht="15">
+      <c r="A12" s="163">
         <v>121</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="80">
+      <c r="B12" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="50">
         <v>10</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -3039,19 +2894,21 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="142"/>
-      <c r="AB12" s="98"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75">
-      <c r="A13" s="200">
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="57"/>
+    </row>
+    <row r="13" spans="1:28" ht="15">
+      <c r="A13" s="163">
         <v>122</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="80">
+      <c r="B13" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="50">
         <v>11</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -3077,19 +2934,21 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="142"/>
-      <c r="AB13" s="98"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75">
-      <c r="A14" s="200">
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="57"/>
+    </row>
+    <row r="14" spans="1:28" ht="15">
+      <c r="A14" s="163">
         <v>123</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="80">
+      <c r="B14" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="50">
         <v>12</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3115,21 +2974,23 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="142"/>
-      <c r="AB14" s="98"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75">
-      <c r="A15" s="200">
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="57"/>
+    </row>
+    <row r="15" spans="1:28" ht="15">
+      <c r="A15" s="163">
         <v>124</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="80">
+      <c r="B15" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="50">
         <v>13</v>
       </c>
-      <c r="D15" s="180" t="s">
+      <c r="D15" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -3151,21 +3012,23 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="98"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75">
-      <c r="A16" s="200">
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="57"/>
+    </row>
+    <row r="16" spans="1:28" ht="15">
+      <c r="A16" s="163">
         <v>137</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="80">
+      <c r="B16" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="50">
         <v>14</v>
       </c>
-      <c r="D16" s="180" t="s">
+      <c r="D16" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3187,21 +3050,23 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="98"/>
-    </row>
-    <row r="17" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A17" s="201">
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="57"/>
+    </row>
+    <row r="17" spans="1:28" ht="16" thickBot="1">
+      <c r="A17" s="164">
         <v>138</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="81">
+      <c r="B17" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="51">
         <v>15</v>
       </c>
-      <c r="D17" s="181" t="s">
+      <c r="D17" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="7"/>
@@ -3227,719 +3092,751 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="143"/>
-      <c r="AB17" s="102"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75">
-      <c r="A18" s="199">
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="60"/>
+    </row>
+    <row r="18" spans="1:28" ht="15">
+      <c r="A18" s="115">
         <v>56</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="138">
         <v>0</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51" t="s">
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="182" t="s">
+      <c r="Q18" s="140"/>
+      <c r="R18" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51">
+      <c r="S18" s="140"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="140"/>
+      <c r="V18" s="140"/>
+      <c r="W18" s="140">
         <v>8</v>
       </c>
-      <c r="X18" s="51">
+      <c r="X18" s="140">
         <v>8</v>
       </c>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="95"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75">
-      <c r="A19" s="200">
+      <c r="Y18" s="140"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="143"/>
+    </row>
+    <row r="19" spans="1:28" ht="15">
+      <c r="A19" s="116">
         <v>57</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="115">
+      <c r="B19" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="144">
         <v>1</v>
       </c>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116" t="s">
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="186" t="s">
+      <c r="Q19" s="146"/>
+      <c r="R19" s="147" t="s">
         <v>164</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116">
+      <c r="S19" s="146"/>
+      <c r="T19" s="146"/>
+      <c r="U19" s="146"/>
+      <c r="V19" s="146"/>
+      <c r="W19" s="146">
         <v>9</v>
       </c>
-      <c r="X19" s="116">
+      <c r="X19" s="146">
         <v>9</v>
       </c>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="144"/>
-      <c r="AB19" s="117"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75">
-      <c r="A20" s="200">
+      <c r="Y19" s="146"/>
+      <c r="Z19" s="146"/>
+      <c r="AA19" s="148"/>
+      <c r="AB19" s="149"/>
+    </row>
+    <row r="20" spans="1:28" ht="15">
+      <c r="A20" s="116">
         <v>58</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="115">
+      <c r="B20" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="144">
         <v>2</v>
       </c>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="144"/>
-      <c r="AB20" s="117"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75">
-      <c r="A21" s="200">
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="146"/>
+      <c r="U20" s="146"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="146"/>
+      <c r="X20" s="146"/>
+      <c r="Y20" s="146"/>
+      <c r="Z20" s="146"/>
+      <c r="AA20" s="148"/>
+      <c r="AB20" s="149"/>
+    </row>
+    <row r="21" spans="1:28" ht="15">
+      <c r="A21" s="116">
         <v>161</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="115">
+      <c r="B21" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="144">
         <v>3</v>
       </c>
-      <c r="D21" s="183" t="s">
+      <c r="D21" s="150" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="163" t="s">
+      <c r="E21" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116" t="s">
+      <c r="F21" s="146"/>
+      <c r="G21" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="144"/>
-      <c r="AB21" s="117"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75">
-      <c r="A22" s="200">
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="146"/>
+      <c r="S21" s="146"/>
+      <c r="T21" s="146"/>
+      <c r="U21" s="146"/>
+      <c r="V21" s="146"/>
+      <c r="W21" s="146"/>
+      <c r="X21" s="146"/>
+      <c r="Y21" s="146"/>
+      <c r="Z21" s="146"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="149"/>
+    </row>
+    <row r="22" spans="1:28" ht="15">
+      <c r="A22" s="116">
         <v>162</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="115">
+      <c r="B22" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="C22" s="144">
+        <v>4</v>
+      </c>
+      <c r="D22" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="163" t="s">
+      <c r="E22" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116" t="s">
+      <c r="F22" s="146"/>
+      <c r="G22" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
-      <c r="AA22" s="144"/>
-      <c r="AB22" s="117"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75">
-      <c r="A23" s="200">
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="146"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="146"/>
+      <c r="T22" s="146"/>
+      <c r="U22" s="146"/>
+      <c r="V22" s="146"/>
+      <c r="W22" s="146"/>
+      <c r="X22" s="146"/>
+      <c r="Y22" s="146"/>
+      <c r="Z22" s="146"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="149"/>
+    </row>
+    <row r="23" spans="1:28" ht="15">
+      <c r="A23" s="116">
         <v>163</v>
       </c>
-      <c r="B23" s="133"/>
-      <c r="C23" s="115">
+      <c r="B23" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="144">
         <v>5</v>
       </c>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163" t="s">
+      <c r="D23" s="145"/>
+      <c r="E23" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116" t="s">
+      <c r="F23" s="146"/>
+      <c r="G23" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="116" t="s">
+      <c r="H23" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116" t="s">
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="186" t="s">
+      <c r="Q23" s="146"/>
+      <c r="R23" s="147" t="s">
         <v>144</v>
       </c>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116" t="s">
+      <c r="S23" s="146"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="146"/>
+      <c r="V23" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="144"/>
-      <c r="AB23" s="117"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75">
-      <c r="A24" s="200">
+      <c r="W23" s="146"/>
+      <c r="X23" s="146"/>
+      <c r="Y23" s="146"/>
+      <c r="Z23" s="146"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="149"/>
+    </row>
+    <row r="24" spans="1:28" ht="15">
+      <c r="A24" s="116">
         <v>164</v>
       </c>
-      <c r="B24" s="133"/>
-      <c r="C24" s="16">
+      <c r="B24" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="144">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5" t="s">
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="146"/>
+      <c r="T24" s="146"/>
+      <c r="U24" s="146"/>
+      <c r="V24" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="142"/>
-      <c r="AB24" s="98"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75">
-      <c r="A25" s="200">
+      <c r="W24" s="146"/>
+      <c r="X24" s="146"/>
+      <c r="Y24" s="146"/>
+      <c r="Z24" s="146"/>
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="149"/>
+    </row>
+    <row r="25" spans="1:28" ht="15">
+      <c r="A25" s="116">
         <v>165</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="16">
+      <c r="B25" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="144">
         <v>7</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="142"/>
-      <c r="AB25" s="98"/>
-    </row>
-    <row r="26" spans="1:28" ht="12" customHeight="1">
-      <c r="A26" s="200">
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="146"/>
+      <c r="S25" s="146"/>
+      <c r="T25" s="146"/>
+      <c r="U25" s="146"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="146"/>
+      <c r="X25" s="146"/>
+      <c r="Y25" s="146"/>
+      <c r="Z25" s="146"/>
+      <c r="AA25" s="148"/>
+      <c r="AB25" s="149"/>
+    </row>
+    <row r="26" spans="1:28" ht="15">
+      <c r="A26" s="116">
         <v>167</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="18">
+      <c r="B26" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="144">
         <v>8</v>
       </c>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11" t="s">
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="187" t="s">
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="147" t="s">
         <v>170</v>
       </c>
-      <c r="S26" s="187" t="s">
+      <c r="S26" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11" t="s">
+      <c r="T26" s="146"/>
+      <c r="U26" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="145"/>
-      <c r="AB26" s="100"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75">
-      <c r="A27" s="200">
+      <c r="V26" s="146"/>
+      <c r="W26" s="146"/>
+      <c r="X26" s="146"/>
+      <c r="Y26" s="146"/>
+      <c r="Z26" s="146"/>
+      <c r="AA26" s="148"/>
+      <c r="AB26" s="149"/>
+    </row>
+    <row r="27" spans="1:28" ht="15">
+      <c r="A27" s="116">
         <v>168</v>
       </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="18">
+      <c r="B27" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="144">
         <v>9</v>
       </c>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="11" t="s">
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11" t="s">
+      <c r="G27" s="146"/>
+      <c r="H27" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="187" t="s">
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="146"/>
+      <c r="S27" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11" t="s">
+      <c r="T27" s="146"/>
+      <c r="U27" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="100"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75">
-      <c r="A28" s="200">
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="146"/>
+      <c r="Z27" s="146"/>
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="149"/>
+    </row>
+    <row r="28" spans="1:28" ht="15">
+      <c r="A28" s="116">
         <v>79</v>
       </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="17">
+      <c r="B28" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="144">
         <v>10</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="4" t="s">
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4" t="s">
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="188" t="s">
+      <c r="Q28" s="146"/>
+      <c r="R28" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="146"/>
-      <c r="AB28" s="99"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75">
-      <c r="A29" s="200">
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="146"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="146"/>
+      <c r="X28" s="146"/>
+      <c r="Y28" s="146"/>
+      <c r="Z28" s="146"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="149"/>
+    </row>
+    <row r="29" spans="1:28" ht="15">
+      <c r="A29" s="116">
         <v>80</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="17">
+      <c r="B29" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="144">
         <v>11</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4" t="s">
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="Q29" s="188" t="s">
+      <c r="Q29" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="R29" s="188" t="s">
+      <c r="R29" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="146"/>
-      <c r="AB29" s="99"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75">
-      <c r="A30" s="200">
+      <c r="S29" s="146"/>
+      <c r="T29" s="146"/>
+      <c r="U29" s="146"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="146"/>
+      <c r="X29" s="146"/>
+      <c r="Y29" s="146"/>
+      <c r="Z29" s="146"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="149"/>
+    </row>
+    <row r="30" spans="1:28" ht="15">
+      <c r="A30" s="116">
         <v>92</v>
       </c>
-      <c r="B30" s="133"/>
-      <c r="C30" s="17">
+      <c r="B30" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="144">
         <v>12</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="4" t="s">
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4" t="s">
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4" t="s">
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="Q30" s="188" t="s">
+      <c r="Q30" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="R30" s="188" t="s">
+      <c r="R30" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4" t="s">
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="146"/>
+      <c r="V30" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="146"/>
-      <c r="AB30" s="99"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75">
-      <c r="A31" s="200">
+      <c r="W30" s="146"/>
+      <c r="X30" s="146"/>
+      <c r="Y30" s="146"/>
+      <c r="Z30" s="146"/>
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="149"/>
+    </row>
+    <row r="31" spans="1:28" ht="15">
+      <c r="A31" s="116">
         <v>93</v>
       </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="17">
+      <c r="B31" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="144">
         <v>13</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="4" t="s">
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4" t="s">
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="Q31" s="188" t="s">
+      <c r="Q31" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="R31" s="188" t="s">
+      <c r="R31" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4" t="s">
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="146"/>
+      <c r="V31" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="146"/>
-      <c r="AB31" s="99"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75">
-      <c r="A32" s="200">
+      <c r="W31" s="146"/>
+      <c r="X31" s="146"/>
+      <c r="Y31" s="146"/>
+      <c r="Z31" s="146"/>
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="149"/>
+    </row>
+    <row r="32" spans="1:28" ht="15">
+      <c r="A32" s="116">
         <v>94</v>
       </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="17">
+      <c r="B32" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="144">
         <v>14</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="4" t="s">
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4" t="s">
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="146"/>
-      <c r="AB32" s="99"/>
-    </row>
-    <row r="33" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A33" s="201">
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="146"/>
+      <c r="U32" s="146"/>
+      <c r="V32" s="146"/>
+      <c r="W32" s="146"/>
+      <c r="X32" s="146"/>
+      <c r="Y32" s="146"/>
+      <c r="Z32" s="146"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="149"/>
+    </row>
+    <row r="33" spans="1:28" ht="16" thickBot="1">
+      <c r="A33" s="117">
         <v>95</v>
       </c>
-      <c r="B33" s="134"/>
-      <c r="C33" s="19">
+      <c r="B33" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="151">
         <v>15</v>
       </c>
-      <c r="D33" s="184" t="s">
+      <c r="D33" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="165"/>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="153"/>
+      <c r="F33" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9" t="s">
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="147"/>
-      <c r="AB33" s="101"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.75">
-      <c r="A34" s="199">
+      <c r="Q33" s="154"/>
+      <c r="R33" s="154"/>
+      <c r="S33" s="154"/>
+      <c r="T33" s="154"/>
+      <c r="U33" s="154"/>
+      <c r="V33" s="154"/>
+      <c r="W33" s="154"/>
+      <c r="X33" s="154"/>
+      <c r="Y33" s="154"/>
+      <c r="Z33" s="154"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="156"/>
+    </row>
+    <row r="34" spans="1:28" ht="15">
+      <c r="A34" s="162">
         <v>32</v>
       </c>
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="13">
         <v>0</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51" t="s">
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51">
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6">
         <v>10</v>
       </c>
-      <c r="X34" s="51">
+      <c r="X34" s="6">
         <v>10</v>
       </c>
-      <c r="Y34" s="51">
+      <c r="Y34" s="6">
         <v>10</v>
       </c>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="139"/>
-      <c r="AB34" s="95"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.75">
-      <c r="A35" s="200">
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="89"/>
+      <c r="AB34" s="63"/>
+    </row>
+    <row r="35" spans="1:28" ht="15">
+      <c r="A35" s="163">
         <v>33</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="16">
+      <c r="B35" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="14">
         <v>1</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -3952,7 +3849,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="189" t="s">
+      <c r="R35" s="107" t="s">
         <v>148</v>
       </c>
       <c r="S35" s="5"/>
@@ -3969,19 +3866,21 @@
         <v>11</v>
       </c>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="142"/>
-      <c r="AB35" s="98"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75">
-      <c r="A36" s="200">
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="57"/>
+    </row>
+    <row r="36" spans="1:28" ht="15">
+      <c r="A36" s="163">
         <v>34</v>
       </c>
-      <c r="B36" s="130"/>
-      <c r="C36" s="16">
+      <c r="B36" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="14">
         <v>2</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="5" t="s">
         <v>52</v>
       </c>
@@ -3998,7 +3897,7 @@
         <v>78</v>
       </c>
       <c r="Q36" s="5"/>
-      <c r="R36" s="189" t="s">
+      <c r="R36" s="107" t="s">
         <v>171</v>
       </c>
       <c r="S36" s="5"/>
@@ -4015,149 +3914,157 @@
         <v>12</v>
       </c>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="142"/>
-      <c r="AB36" s="98"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75">
-      <c r="A37" s="200">
+      <c r="AA36" s="83"/>
+      <c r="AB36" s="57"/>
+    </row>
+    <row r="37" spans="1:28" ht="15">
+      <c r="A37" s="163">
         <v>35</v>
       </c>
-      <c r="B37" s="130"/>
-      <c r="C37" s="23">
+      <c r="B37" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="14">
         <v>3</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="185" t="s">
+      <c r="Q37" s="5"/>
+      <c r="R37" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25">
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5">
         <v>13</v>
       </c>
-      <c r="X37" s="25">
+      <c r="X37" s="5">
         <v>13</v>
       </c>
-      <c r="Y37" s="25">
+      <c r="Y37" s="5">
         <v>13</v>
       </c>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="140"/>
-      <c r="AB37" s="96"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75">
-      <c r="A38" s="200">
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="57"/>
+    </row>
+    <row r="38" spans="1:28" ht="15">
+      <c r="A38" s="163">
         <v>54</v>
       </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="23">
+      <c r="B38" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="14">
         <v>4</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="185" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="R38" s="185" t="s">
+      <c r="R38" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25">
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5">
         <v>14</v>
       </c>
-      <c r="X38" s="25">
+      <c r="X38" s="5">
         <v>14</v>
       </c>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="140"/>
-      <c r="AB38" s="96"/>
-    </row>
-    <row r="39" spans="1:28" ht="15.75">
-      <c r="A39" s="200">
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="57"/>
+    </row>
+    <row r="39" spans="1:28" ht="15">
+      <c r="A39" s="163">
         <v>55</v>
       </c>
-      <c r="B39" s="130"/>
-      <c r="C39" s="23">
+      <c r="B39" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="185" t="s">
+      <c r="C39" s="14">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="R39" s="185" t="s">
+      <c r="R39" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25">
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5">
         <v>15</v>
       </c>
-      <c r="X39" s="25">
+      <c r="X39" s="5">
         <v>15</v>
       </c>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="140"/>
-      <c r="AB39" s="96"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75">
-      <c r="A40" s="200">
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="83"/>
+      <c r="AB39" s="57"/>
+    </row>
+    <row r="40" spans="1:28" ht="15">
+      <c r="A40" s="163">
         <v>115</v>
       </c>
-      <c r="B40" s="130"/>
-      <c r="C40" s="16">
+      <c r="B40" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="14">
         <v>6</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -4171,7 +4078,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-      <c r="S40" s="189" t="s">
+      <c r="S40" s="107" t="s">
         <v>149</v>
       </c>
       <c r="T40" s="5"/>
@@ -4181,19 +4088,21 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="142"/>
-      <c r="AB40" s="98"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.75">
-      <c r="A41" s="200">
+      <c r="AA40" s="83"/>
+      <c r="AB40" s="57"/>
+    </row>
+    <row r="41" spans="1:28" ht="15">
+      <c r="A41" s="163">
         <v>116</v>
       </c>
-      <c r="B41" s="130"/>
-      <c r="C41" s="16">
+      <c r="B41" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="14">
         <v>7</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -4207,7 +4116,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-      <c r="S41" s="189" t="s">
+      <c r="S41" s="107" t="s">
         <v>150</v>
       </c>
       <c r="T41" s="5"/>
@@ -4217,19 +4126,21 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="142"/>
-      <c r="AB41" s="98"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75">
-      <c r="A42" s="200">
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="57"/>
+    </row>
+    <row r="42" spans="1:28" ht="15">
+      <c r="A42" s="163">
         <v>117</v>
       </c>
-      <c r="B42" s="130"/>
-      <c r="C42" s="16">
+      <c r="B42" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="14">
         <v>8</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -4243,7 +4154,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="189" t="s">
+      <c r="S42" s="107" t="s">
         <v>151</v>
       </c>
       <c r="T42" s="5"/>
@@ -4253,21 +4164,23 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="142"/>
-      <c r="AB42" s="98"/>
-    </row>
-    <row r="43" spans="1:28" ht="15.75">
-      <c r="A43" s="200">
+      <c r="AA42" s="83"/>
+      <c r="AB42" s="57"/>
+    </row>
+    <row r="43" spans="1:28" ht="15">
+      <c r="A43" s="163">
         <v>118</v>
       </c>
-      <c r="B43" s="130"/>
-      <c r="C43" s="16">
+      <c r="B43" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="14">
         <v>9</v>
       </c>
-      <c r="D43" s="180" t="s">
+      <c r="D43" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -4283,7 +4196,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-      <c r="S43" s="189" t="s">
+      <c r="S43" s="107" t="s">
         <v>153</v>
       </c>
       <c r="T43" s="5"/>
@@ -4293,19 +4206,21 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="142"/>
-      <c r="AB43" s="98"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75">
-      <c r="A44" s="200">
+      <c r="AA43" s="83"/>
+      <c r="AB43" s="57"/>
+    </row>
+    <row r="44" spans="1:28" ht="15">
+      <c r="A44" s="163">
         <v>139</v>
       </c>
-      <c r="B44" s="130"/>
-      <c r="C44" s="16">
+      <c r="B44" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="14">
         <v>10</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
         <v>54</v>
@@ -4321,10 +4236,10 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="189" t="s">
+      <c r="S44" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="T44" s="189" t="s">
+      <c r="T44" s="107" t="s">
         <v>135</v>
       </c>
       <c r="U44" s="5"/>
@@ -4333,19 +4248,21 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="142"/>
-      <c r="AB44" s="98"/>
-    </row>
-    <row r="45" spans="1:28" ht="15.75">
-      <c r="A45" s="200">
+      <c r="AA44" s="83"/>
+      <c r="AB44" s="57"/>
+    </row>
+    <row r="45" spans="1:28" ht="15">
+      <c r="A45" s="163">
         <v>140</v>
       </c>
-      <c r="B45" s="130"/>
-      <c r="C45" s="16">
+      <c r="B45" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="14">
         <v>11</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
         <v>52</v>
@@ -4361,10 +4278,10 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="189" t="s">
+      <c r="S45" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="T45" s="189" t="s">
+      <c r="T45" s="107" t="s">
         <v>136</v>
       </c>
       <c r="U45" s="5"/>
@@ -4373,19 +4290,21 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
-      <c r="AA45" s="142"/>
-      <c r="AB45" s="98"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75">
-      <c r="A46" s="200">
+      <c r="AA45" s="83"/>
+      <c r="AB45" s="57"/>
+    </row>
+    <row r="46" spans="1:28" ht="15">
+      <c r="A46" s="163">
         <v>141</v>
       </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="16">
+      <c r="B46" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="14">
         <v>12</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
         <v>53</v>
@@ -4401,10 +4320,10 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-      <c r="S46" s="189" t="s">
+      <c r="S46" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="T46" s="189" t="s">
+      <c r="T46" s="107" t="s">
         <v>147</v>
       </c>
       <c r="U46" s="5"/>
@@ -4413,19 +4332,21 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
-      <c r="AA46" s="142"/>
-      <c r="AB46" s="98"/>
-    </row>
-    <row r="47" spans="1:28" ht="15.75">
-      <c r="A47" s="200">
+      <c r="AA46" s="83"/>
+      <c r="AB46" s="57"/>
+    </row>
+    <row r="47" spans="1:28" ht="15">
+      <c r="A47" s="163">
         <v>8</v>
       </c>
-      <c r="B47" s="130"/>
-      <c r="C47" s="16">
+      <c r="B47" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="14">
         <v>13</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -4447,19 +4368,21 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="142"/>
-      <c r="AB47" s="98"/>
-    </row>
-    <row r="48" spans="1:28" ht="15.75">
-      <c r="A48" s="200">
+      <c r="AA47" s="83"/>
+      <c r="AB47" s="57"/>
+    </row>
+    <row r="48" spans="1:28" ht="15">
+      <c r="A48" s="163">
         <v>9</v>
       </c>
-      <c r="B48" s="130"/>
-      <c r="C48" s="16">
+      <c r="B48" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="14">
         <v>14</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -4481,19 +4404,21 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="142"/>
-      <c r="AB48" s="98"/>
-    </row>
-    <row r="49" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A49" s="201">
+      <c r="AA48" s="83"/>
+      <c r="AB48" s="57"/>
+    </row>
+    <row r="49" spans="1:28" ht="16" thickBot="1">
+      <c r="A49" s="164">
         <v>10</v>
       </c>
-      <c r="B49" s="131"/>
-      <c r="C49" s="82">
+      <c r="B49" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="52">
         <v>15</v>
       </c>
-      <c r="D49" s="170"/>
-      <c r="E49" s="14"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -4515,823 +4440,823 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
-      <c r="AA49" s="143"/>
-      <c r="AB49" s="102"/>
-    </row>
-    <row r="50" spans="1:28" ht="15.75">
-      <c r="A50" s="199">
+      <c r="AA49" s="84"/>
+      <c r="AB49" s="60"/>
+    </row>
+    <row r="50" spans="1:28" ht="15">
+      <c r="A50" s="115">
         <v>142</v>
       </c>
-      <c r="B50" s="132" t="s">
+      <c r="B50" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="83">
+      <c r="C50" s="157">
         <v>0</v>
       </c>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56" t="s">
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="140"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="140"/>
+      <c r="O50" s="140"/>
+      <c r="P50" s="140"/>
+      <c r="Q50" s="140"/>
+      <c r="R50" s="140"/>
+      <c r="S50" s="140"/>
+      <c r="T50" s="140"/>
+      <c r="U50" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="148"/>
-      <c r="AB50" s="103"/>
-    </row>
-    <row r="51" spans="1:28" ht="15.75">
-      <c r="A51" s="200">
+      <c r="V50" s="140"/>
+      <c r="W50" s="140"/>
+      <c r="X50" s="140"/>
+      <c r="Y50" s="140"/>
+      <c r="Z50" s="140"/>
+      <c r="AA50" s="142"/>
+      <c r="AB50" s="143"/>
+    </row>
+    <row r="51" spans="1:28" ht="15">
+      <c r="A51" s="116">
         <v>143</v>
       </c>
-      <c r="B51" s="133" t="s">
+      <c r="B51" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="84">
+      <c r="C51" s="158">
         <v>1</v>
       </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="190" t="s">
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="146"/>
+      <c r="K51" s="146"/>
+      <c r="L51" s="146"/>
+      <c r="M51" s="146"/>
+      <c r="N51" s="146"/>
+      <c r="O51" s="146"/>
+      <c r="P51" s="146"/>
+      <c r="Q51" s="146"/>
+      <c r="R51" s="146"/>
+      <c r="S51" s="146"/>
+      <c r="T51" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="U51" s="58" t="s">
+      <c r="U51" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="V51" s="58"/>
-      <c r="W51" s="58"/>
-      <c r="X51" s="58"/>
-      <c r="Y51" s="58"/>
-      <c r="Z51" s="58"/>
-      <c r="AA51" s="149"/>
-      <c r="AB51" s="104"/>
-    </row>
-    <row r="52" spans="1:28" ht="15.75">
-      <c r="A52" s="200">
+      <c r="V51" s="146"/>
+      <c r="W51" s="146"/>
+      <c r="X51" s="146"/>
+      <c r="Y51" s="146"/>
+      <c r="Z51" s="146"/>
+      <c r="AA51" s="148"/>
+      <c r="AB51" s="149"/>
+    </row>
+    <row r="52" spans="1:28" ht="15">
+      <c r="A52" s="116">
         <v>144</v>
       </c>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="84">
+      <c r="C52" s="158">
         <v>2</v>
       </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58"/>
-      <c r="R52" s="58"/>
-      <c r="S52" s="190" t="s">
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="146"/>
+      <c r="K52" s="146"/>
+      <c r="L52" s="146"/>
+      <c r="M52" s="146"/>
+      <c r="N52" s="146"/>
+      <c r="O52" s="146"/>
+      <c r="P52" s="146"/>
+      <c r="Q52" s="146"/>
+      <c r="R52" s="146"/>
+      <c r="S52" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="T52" s="190"/>
-      <c r="U52" s="58"/>
-      <c r="V52" s="58"/>
-      <c r="W52" s="58"/>
-      <c r="X52" s="58"/>
-      <c r="Y52" s="58"/>
-      <c r="Z52" s="58"/>
-      <c r="AA52" s="149"/>
-      <c r="AB52" s="104"/>
-    </row>
-    <row r="53" spans="1:28" ht="15.75">
-      <c r="A53" s="200">
+      <c r="T52" s="147"/>
+      <c r="U52" s="146"/>
+      <c r="V52" s="146"/>
+      <c r="W52" s="146"/>
+      <c r="X52" s="146"/>
+      <c r="Y52" s="146"/>
+      <c r="Z52" s="146"/>
+      <c r="AA52" s="148"/>
+      <c r="AB52" s="149"/>
+    </row>
+    <row r="53" spans="1:28" ht="15">
+      <c r="A53" s="116">
         <v>145</v>
       </c>
-      <c r="B53" s="133" t="s">
+      <c r="B53" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="84">
+      <c r="C53" s="158">
         <v>3</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="58"/>
-      <c r="U53" s="58"/>
-      <c r="V53" s="58"/>
-      <c r="W53" s="58"/>
-      <c r="X53" s="58"/>
-      <c r="Y53" s="58"/>
-      <c r="Z53" s="58"/>
-      <c r="AA53" s="149"/>
-      <c r="AB53" s="104"/>
-    </row>
-    <row r="54" spans="1:28" ht="15.75">
-      <c r="A54" s="200">
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="146"/>
+      <c r="M53" s="146"/>
+      <c r="N53" s="146"/>
+      <c r="O53" s="146"/>
+      <c r="P53" s="146"/>
+      <c r="Q53" s="146"/>
+      <c r="R53" s="146"/>
+      <c r="S53" s="146"/>
+      <c r="T53" s="146"/>
+      <c r="U53" s="146"/>
+      <c r="V53" s="146"/>
+      <c r="W53" s="146"/>
+      <c r="X53" s="146"/>
+      <c r="Y53" s="146"/>
+      <c r="Z53" s="146"/>
+      <c r="AA53" s="148"/>
+      <c r="AB53" s="149"/>
+    </row>
+    <row r="54" spans="1:28" ht="15">
+      <c r="A54" s="116">
         <v>146</v>
       </c>
-      <c r="B54" s="133" t="s">
+      <c r="B54" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="84">
+      <c r="C54" s="158">
         <v>4</v>
       </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58"/>
-      <c r="R54" s="58"/>
-      <c r="S54" s="58"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="58"/>
-      <c r="V54" s="58"/>
-      <c r="W54" s="58"/>
-      <c r="X54" s="58"/>
-      <c r="Y54" s="58"/>
-      <c r="Z54" s="58"/>
-      <c r="AA54" s="149"/>
-      <c r="AB54" s="104"/>
-    </row>
-    <row r="55" spans="1:28" ht="15.75">
-      <c r="A55" s="200">
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="146"/>
+      <c r="J54" s="146"/>
+      <c r="K54" s="146"/>
+      <c r="L54" s="146"/>
+      <c r="M54" s="146"/>
+      <c r="N54" s="146"/>
+      <c r="O54" s="146"/>
+      <c r="P54" s="146"/>
+      <c r="Q54" s="146"/>
+      <c r="R54" s="146"/>
+      <c r="S54" s="146"/>
+      <c r="T54" s="146"/>
+      <c r="U54" s="146"/>
+      <c r="V54" s="146"/>
+      <c r="W54" s="146"/>
+      <c r="X54" s="146"/>
+      <c r="Y54" s="146"/>
+      <c r="Z54" s="146"/>
+      <c r="AA54" s="148"/>
+      <c r="AB54" s="149"/>
+    </row>
+    <row r="55" spans="1:28" ht="15">
+      <c r="A55" s="116">
         <v>147</v>
       </c>
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="84">
+      <c r="C55" s="158">
         <v>5</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="58"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="58"/>
-      <c r="U55" s="58"/>
-      <c r="V55" s="58"/>
-      <c r="W55" s="58"/>
-      <c r="X55" s="58"/>
-      <c r="Y55" s="58"/>
-      <c r="Z55" s="58"/>
-      <c r="AA55" s="149"/>
-      <c r="AB55" s="104"/>
-    </row>
-    <row r="56" spans="1:28" ht="15.75">
-      <c r="A56" s="200">
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="146"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="146"/>
+      <c r="K55" s="146"/>
+      <c r="L55" s="146"/>
+      <c r="M55" s="146"/>
+      <c r="N55" s="146"/>
+      <c r="O55" s="146"/>
+      <c r="P55" s="146"/>
+      <c r="Q55" s="146"/>
+      <c r="R55" s="146"/>
+      <c r="S55" s="146"/>
+      <c r="T55" s="146"/>
+      <c r="U55" s="146"/>
+      <c r="V55" s="146"/>
+      <c r="W55" s="146"/>
+      <c r="X55" s="146"/>
+      <c r="Y55" s="146"/>
+      <c r="Z55" s="146"/>
+      <c r="AA55" s="148"/>
+      <c r="AB55" s="149"/>
+    </row>
+    <row r="56" spans="1:28" ht="15">
+      <c r="A56" s="116">
         <v>150</v>
       </c>
-      <c r="B56" s="133" t="s">
+      <c r="B56" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="158">
         <v>6</v>
       </c>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="58"/>
-      <c r="R56" s="58"/>
-      <c r="S56" s="58"/>
-      <c r="T56" s="58"/>
-      <c r="U56" s="58"/>
-      <c r="V56" s="58"/>
-      <c r="W56" s="58"/>
-      <c r="X56" s="58"/>
-      <c r="Y56" s="58"/>
-      <c r="Z56" s="58"/>
-      <c r="AA56" s="149"/>
-      <c r="AB56" s="104"/>
-    </row>
-    <row r="57" spans="1:28" ht="15.75">
-      <c r="A57" s="200">
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
+      <c r="J56" s="146"/>
+      <c r="K56" s="146"/>
+      <c r="L56" s="146"/>
+      <c r="M56" s="146"/>
+      <c r="N56" s="146"/>
+      <c r="O56" s="146"/>
+      <c r="P56" s="146"/>
+      <c r="Q56" s="146"/>
+      <c r="R56" s="146"/>
+      <c r="S56" s="146"/>
+      <c r="T56" s="146"/>
+      <c r="U56" s="146"/>
+      <c r="V56" s="146"/>
+      <c r="W56" s="146"/>
+      <c r="X56" s="146"/>
+      <c r="Y56" s="146"/>
+      <c r="Z56" s="146"/>
+      <c r="AA56" s="148"/>
+      <c r="AB56" s="149"/>
+    </row>
+    <row r="57" spans="1:28" ht="15">
+      <c r="A57" s="116">
         <v>151</v>
       </c>
-      <c r="B57" s="133" t="s">
+      <c r="B57" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="85">
+      <c r="C57" s="158">
         <v>7</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="146"/>
-      <c r="AB57" s="99"/>
-    </row>
-    <row r="58" spans="1:28" ht="15.75">
-      <c r="A58" s="200">
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
+      <c r="J57" s="146"/>
+      <c r="K57" s="146"/>
+      <c r="L57" s="146"/>
+      <c r="M57" s="146"/>
+      <c r="N57" s="146"/>
+      <c r="O57" s="146"/>
+      <c r="P57" s="146"/>
+      <c r="Q57" s="146"/>
+      <c r="R57" s="146"/>
+      <c r="S57" s="146"/>
+      <c r="T57" s="146"/>
+      <c r="U57" s="146"/>
+      <c r="V57" s="146"/>
+      <c r="W57" s="146"/>
+      <c r="X57" s="146"/>
+      <c r="Y57" s="146"/>
+      <c r="Z57" s="146"/>
+      <c r="AA57" s="148"/>
+      <c r="AB57" s="149"/>
+    </row>
+    <row r="58" spans="1:28" ht="15">
+      <c r="A58" s="116">
         <v>96</v>
       </c>
-      <c r="B58" s="133" t="s">
+      <c r="B58" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="86">
+      <c r="C58" s="158">
         <v>8</v>
       </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="60"/>
-      <c r="T58" s="60"/>
-      <c r="U58" s="60"/>
-      <c r="V58" s="60"/>
-      <c r="W58" s="60"/>
-      <c r="X58" s="60"/>
-      <c r="Y58" s="60"/>
-      <c r="Z58" s="60"/>
-      <c r="AA58" s="150"/>
-      <c r="AB58" s="105"/>
-    </row>
-    <row r="59" spans="1:28" ht="15.75">
-      <c r="A59" s="200">
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="146"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
+      <c r="J58" s="146"/>
+      <c r="K58" s="146"/>
+      <c r="L58" s="146"/>
+      <c r="M58" s="146"/>
+      <c r="N58" s="146"/>
+      <c r="O58" s="146"/>
+      <c r="P58" s="146"/>
+      <c r="Q58" s="146"/>
+      <c r="R58" s="146"/>
+      <c r="S58" s="146"/>
+      <c r="T58" s="146"/>
+      <c r="U58" s="146"/>
+      <c r="V58" s="146"/>
+      <c r="W58" s="146"/>
+      <c r="X58" s="146"/>
+      <c r="Y58" s="146"/>
+      <c r="Z58" s="146"/>
+      <c r="AA58" s="148"/>
+      <c r="AB58" s="149"/>
+    </row>
+    <row r="59" spans="1:28" ht="15">
+      <c r="A59" s="116">
         <v>97</v>
       </c>
-      <c r="B59" s="133" t="s">
+      <c r="B59" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="86">
+      <c r="C59" s="158">
         <v>9</v>
       </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="60"/>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="60"/>
-      <c r="T59" s="60"/>
-      <c r="U59" s="60"/>
-      <c r="V59" s="60"/>
-      <c r="W59" s="60"/>
-      <c r="X59" s="60"/>
-      <c r="Y59" s="60"/>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="150"/>
-      <c r="AB59" s="105"/>
-    </row>
-    <row r="60" spans="1:28" ht="15.75">
-      <c r="A60" s="200">
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="146"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
+      <c r="J59" s="146"/>
+      <c r="K59" s="146"/>
+      <c r="L59" s="146"/>
+      <c r="M59" s="146"/>
+      <c r="N59" s="146"/>
+      <c r="O59" s="146"/>
+      <c r="P59" s="146"/>
+      <c r="Q59" s="146"/>
+      <c r="R59" s="146"/>
+      <c r="S59" s="146"/>
+      <c r="T59" s="146"/>
+      <c r="U59" s="146"/>
+      <c r="V59" s="146"/>
+      <c r="W59" s="146"/>
+      <c r="X59" s="146"/>
+      <c r="Y59" s="146"/>
+      <c r="Z59" s="146"/>
+      <c r="AA59" s="148"/>
+      <c r="AB59" s="149"/>
+    </row>
+    <row r="60" spans="1:28" ht="15">
+      <c r="A60" s="116">
         <v>98</v>
       </c>
-      <c r="B60" s="133" t="s">
+      <c r="B60" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="86">
+      <c r="C60" s="158">
         <v>10</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="60"/>
-      <c r="T60" s="60"/>
-      <c r="U60" s="60"/>
-      <c r="V60" s="60"/>
-      <c r="W60" s="60"/>
-      <c r="X60" s="60"/>
-      <c r="Y60" s="60"/>
-      <c r="Z60" s="60"/>
-      <c r="AA60" s="150"/>
-      <c r="AB60" s="105"/>
-    </row>
-    <row r="61" spans="1:28" ht="15.75">
-      <c r="A61" s="200">
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="146"/>
+      <c r="K60" s="146"/>
+      <c r="L60" s="146"/>
+      <c r="M60" s="146"/>
+      <c r="N60" s="146"/>
+      <c r="O60" s="146"/>
+      <c r="P60" s="146"/>
+      <c r="Q60" s="146"/>
+      <c r="R60" s="146"/>
+      <c r="S60" s="146"/>
+      <c r="T60" s="146"/>
+      <c r="U60" s="146"/>
+      <c r="V60" s="146"/>
+      <c r="W60" s="146"/>
+      <c r="X60" s="146"/>
+      <c r="Y60" s="146"/>
+      <c r="Z60" s="146"/>
+      <c r="AA60" s="148"/>
+      <c r="AB60" s="149"/>
+    </row>
+    <row r="61" spans="1:28" ht="15">
+      <c r="A61" s="116">
         <v>99</v>
       </c>
-      <c r="B61" s="133" t="s">
+      <c r="B61" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="86">
+      <c r="C61" s="158">
         <v>11</v>
       </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="60"/>
-      <c r="Y61" s="60"/>
-      <c r="Z61" s="60"/>
-      <c r="AA61" s="150"/>
-      <c r="AB61" s="105"/>
-    </row>
-    <row r="62" spans="1:28" ht="15.75">
-      <c r="A62" s="200">
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="146"/>
+      <c r="K61" s="146"/>
+      <c r="L61" s="146"/>
+      <c r="M61" s="146"/>
+      <c r="N61" s="146"/>
+      <c r="O61" s="146"/>
+      <c r="P61" s="146"/>
+      <c r="Q61" s="146"/>
+      <c r="R61" s="146"/>
+      <c r="S61" s="146"/>
+      <c r="T61" s="146"/>
+      <c r="U61" s="146"/>
+      <c r="V61" s="146"/>
+      <c r="W61" s="146"/>
+      <c r="X61" s="146"/>
+      <c r="Y61" s="146"/>
+      <c r="Z61" s="146"/>
+      <c r="AA61" s="148"/>
+      <c r="AB61" s="149"/>
+    </row>
+    <row r="62" spans="1:28" ht="15">
+      <c r="A62" s="116">
         <v>100</v>
       </c>
-      <c r="B62" s="133" t="s">
+      <c r="B62" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="86">
+      <c r="C62" s="158">
         <v>12</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
-      <c r="N62" s="60"/>
-      <c r="O62" s="60"/>
-      <c r="P62" s="60"/>
-      <c r="Q62" s="60"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="60"/>
-      <c r="T62" s="60"/>
-      <c r="U62" s="60"/>
-      <c r="V62" s="60"/>
-      <c r="W62" s="60"/>
-      <c r="X62" s="60"/>
-      <c r="Y62" s="60"/>
-      <c r="Z62" s="60"/>
-      <c r="AA62" s="150"/>
-      <c r="AB62" s="105"/>
-    </row>
-    <row r="63" spans="1:28" ht="15.75">
-      <c r="A63" s="200">
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="146"/>
+      <c r="K62" s="146"/>
+      <c r="L62" s="146"/>
+      <c r="M62" s="146"/>
+      <c r="N62" s="146"/>
+      <c r="O62" s="146"/>
+      <c r="P62" s="146"/>
+      <c r="Q62" s="146"/>
+      <c r="R62" s="146"/>
+      <c r="S62" s="146"/>
+      <c r="T62" s="146"/>
+      <c r="U62" s="146"/>
+      <c r="V62" s="146"/>
+      <c r="W62" s="146"/>
+      <c r="X62" s="146"/>
+      <c r="Y62" s="146"/>
+      <c r="Z62" s="146"/>
+      <c r="AA62" s="148"/>
+      <c r="AB62" s="149"/>
+    </row>
+    <row r="63" spans="1:28" ht="15">
+      <c r="A63" s="116">
         <v>101</v>
       </c>
-      <c r="B63" s="133" t="s">
+      <c r="B63" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="86">
+      <c r="C63" s="158">
         <v>13</v>
       </c>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
-      <c r="V63" s="60"/>
-      <c r="W63" s="60"/>
-      <c r="X63" s="60"/>
-      <c r="Y63" s="60"/>
-      <c r="Z63" s="60"/>
-      <c r="AA63" s="150"/>
-      <c r="AB63" s="105"/>
-    </row>
-    <row r="64" spans="1:28" ht="15.75">
-      <c r="A64" s="200">
+      <c r="D63" s="145"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="146"/>
+      <c r="H63" s="146"/>
+      <c r="I63" s="146"/>
+      <c r="J63" s="146"/>
+      <c r="K63" s="146"/>
+      <c r="L63" s="146"/>
+      <c r="M63" s="146"/>
+      <c r="N63" s="146"/>
+      <c r="O63" s="146"/>
+      <c r="P63" s="146"/>
+      <c r="Q63" s="146"/>
+      <c r="R63" s="146"/>
+      <c r="S63" s="146"/>
+      <c r="T63" s="146"/>
+      <c r="U63" s="146"/>
+      <c r="V63" s="146"/>
+      <c r="W63" s="146"/>
+      <c r="X63" s="146"/>
+      <c r="Y63" s="146"/>
+      <c r="Z63" s="146"/>
+      <c r="AA63" s="148"/>
+      <c r="AB63" s="149"/>
+    </row>
+    <row r="64" spans="1:28" ht="15">
+      <c r="A64" s="116">
         <v>104</v>
       </c>
-      <c r="B64" s="133" t="s">
+      <c r="B64" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="86">
+      <c r="C64" s="158">
         <v>14</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="60"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="60"/>
-      <c r="T64" s="60"/>
-      <c r="U64" s="60"/>
-      <c r="V64" s="60"/>
-      <c r="W64" s="60"/>
-      <c r="X64" s="60"/>
-      <c r="Y64" s="60"/>
-      <c r="Z64" s="60"/>
-      <c r="AA64" s="150"/>
-      <c r="AB64" s="105"/>
-    </row>
-    <row r="65" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A65" s="201">
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="146"/>
+      <c r="H64" s="146"/>
+      <c r="I64" s="146"/>
+      <c r="J64" s="146"/>
+      <c r="K64" s="146"/>
+      <c r="L64" s="146"/>
+      <c r="M64" s="146"/>
+      <c r="N64" s="146"/>
+      <c r="O64" s="146"/>
+      <c r="P64" s="146"/>
+      <c r="Q64" s="146"/>
+      <c r="R64" s="146"/>
+      <c r="S64" s="146"/>
+      <c r="T64" s="146"/>
+      <c r="U64" s="146"/>
+      <c r="V64" s="146"/>
+      <c r="W64" s="146"/>
+      <c r="X64" s="146"/>
+      <c r="Y64" s="146"/>
+      <c r="Z64" s="146"/>
+      <c r="AA64" s="148"/>
+      <c r="AB64" s="149"/>
+    </row>
+    <row r="65" spans="1:28" ht="16" thickBot="1">
+      <c r="A65" s="117">
         <v>105</v>
       </c>
-      <c r="B65" s="134" t="s">
+      <c r="B65" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="87">
+      <c r="C65" s="159">
         <v>15</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
-      <c r="O65" s="62"/>
-      <c r="P65" s="62"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="62"/>
-      <c r="S65" s="62"/>
-      <c r="T65" s="62"/>
-      <c r="U65" s="62"/>
-      <c r="V65" s="62"/>
-      <c r="W65" s="62"/>
-      <c r="X65" s="62"/>
-      <c r="Y65" s="62"/>
-      <c r="Z65" s="62"/>
-      <c r="AA65" s="151"/>
-      <c r="AB65" s="106"/>
-    </row>
-    <row r="66" spans="1:28" ht="15.75">
-      <c r="A66" s="199">
+      <c r="D65" s="153"/>
+      <c r="E65" s="153"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="154"/>
+      <c r="J65" s="154"/>
+      <c r="K65" s="154"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
+      <c r="N65" s="154"/>
+      <c r="O65" s="154"/>
+      <c r="P65" s="154"/>
+      <c r="Q65" s="154"/>
+      <c r="R65" s="154"/>
+      <c r="S65" s="154"/>
+      <c r="T65" s="154"/>
+      <c r="U65" s="154"/>
+      <c r="V65" s="154"/>
+      <c r="W65" s="154"/>
+      <c r="X65" s="154"/>
+      <c r="Y65" s="154"/>
+      <c r="Z65" s="154"/>
+      <c r="AA65" s="155"/>
+      <c r="AB65" s="156"/>
+    </row>
+    <row r="66" spans="1:28" ht="15">
+      <c r="A66" s="162">
         <v>169</v>
       </c>
-      <c r="B66" s="129" t="s">
+      <c r="B66" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="78">
+      <c r="C66" s="131">
         <v>0</v>
       </c>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="64"/>
-      <c r="Q66" s="64"/>
-      <c r="R66" s="64"/>
-      <c r="S66" s="64"/>
-      <c r="T66" s="64"/>
-      <c r="U66" s="64"/>
-      <c r="V66" s="64"/>
-      <c r="W66" s="64"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="64"/>
-      <c r="Z66" s="64"/>
-      <c r="AA66" s="152"/>
-      <c r="AB66" s="107"/>
-    </row>
-    <row r="67" spans="1:28" ht="15.75">
-      <c r="A67" s="200">
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="89"/>
+      <c r="AB66" s="63"/>
+    </row>
+    <row r="67" spans="1:28" ht="15">
+      <c r="A67" s="163">
         <v>170</v>
       </c>
-      <c r="B67" s="130" t="s">
+      <c r="B67" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="79">
+      <c r="C67" s="50">
         <v>1</v>
       </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="66"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="66"/>
-      <c r="Y67" s="66"/>
-      <c r="Z67" s="66"/>
-      <c r="AA67" s="153"/>
-      <c r="AB67" s="108"/>
-    </row>
-    <row r="68" spans="1:28" ht="15.75">
-      <c r="A68" s="200">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="83"/>
+      <c r="AB67" s="57"/>
+    </row>
+    <row r="68" spans="1:28" ht="15">
+      <c r="A68" s="163">
         <v>1</v>
       </c>
-      <c r="B68" s="130" t="s">
+      <c r="B68" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="79">
+      <c r="C68" s="50">
         <v>2</v>
       </c>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="191" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
-      <c r="Y68" s="66"/>
-      <c r="Z68" s="66"/>
-      <c r="AA68" s="153"/>
-      <c r="AB68" s="108"/>
-    </row>
-    <row r="69" spans="1:28" ht="15.75">
-      <c r="A69" s="200">
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="83"/>
+      <c r="AB68" s="57"/>
+    </row>
+    <row r="69" spans="1:28" ht="15">
+      <c r="A69" s="163">
         <v>2</v>
       </c>
-      <c r="B69" s="130" t="s">
+      <c r="B69" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="79">
+      <c r="C69" s="50">
         <v>3</v>
       </c>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
-      <c r="M69" s="66"/>
-      <c r="N69" s="66"/>
-      <c r="O69" s="66"/>
-      <c r="P69" s="66"/>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="66"/>
-      <c r="S69" s="66"/>
-      <c r="T69" s="66"/>
-      <c r="U69" s="66"/>
-      <c r="V69" s="66"/>
-      <c r="W69" s="66"/>
-      <c r="X69" s="66"/>
-      <c r="Y69" s="66"/>
-      <c r="Z69" s="66"/>
-      <c r="AA69" s="153"/>
-      <c r="AB69" s="108"/>
-    </row>
-    <row r="70" spans="1:28" ht="15.75">
-      <c r="A70" s="200">
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="83"/>
+      <c r="AB69" s="57"/>
+    </row>
+    <row r="70" spans="1:28" ht="15">
+      <c r="A70" s="163">
         <v>3</v>
       </c>
-      <c r="B70" s="130" t="s">
+      <c r="B70" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="79">
+      <c r="C70" s="50">
         <v>4</v>
       </c>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
-      <c r="M70" s="66"/>
-      <c r="N70" s="66"/>
-      <c r="O70" s="66"/>
-      <c r="P70" s="66"/>
-      <c r="Q70" s="66"/>
-      <c r="R70" s="66"/>
-      <c r="S70" s="66"/>
-      <c r="T70" s="66"/>
-      <c r="U70" s="66"/>
-      <c r="V70" s="66"/>
-      <c r="W70" s="66"/>
-      <c r="X70" s="66"/>
-      <c r="Y70" s="66"/>
-      <c r="Z70" s="66"/>
-      <c r="AA70" s="153"/>
-      <c r="AB70" s="108"/>
-    </row>
-    <row r="71" spans="1:28" ht="15.75">
-      <c r="A71" s="200">
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="83"/>
+      <c r="AB70" s="57"/>
+    </row>
+    <row r="71" spans="1:28" ht="15">
+      <c r="A71" s="163">
         <v>4</v>
       </c>
-      <c r="B71" s="130" t="s">
+      <c r="B71" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="79">
+      <c r="C71" s="50">
         <v>5</v>
       </c>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
-      <c r="M71" s="66"/>
-      <c r="N71" s="66"/>
-      <c r="O71" s="66"/>
-      <c r="P71" s="66"/>
-      <c r="Q71" s="66"/>
-      <c r="R71" s="66"/>
-      <c r="S71" s="66"/>
-      <c r="T71" s="66"/>
-      <c r="U71" s="66"/>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="153"/>
-      <c r="AB71" s="108"/>
-    </row>
-    <row r="72" spans="1:28" ht="15.75">
-      <c r="A72" s="200">
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="83"/>
+      <c r="AB71" s="57"/>
+    </row>
+    <row r="72" spans="1:28" ht="15">
+      <c r="A72" s="163">
         <v>5</v>
       </c>
-      <c r="B72" s="130" t="s">
+      <c r="B72" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="80">
+      <c r="C72" s="50">
         <v>6</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -5353,21 +5278,21 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-      <c r="AA72" s="142"/>
-      <c r="AB72" s="98"/>
-    </row>
-    <row r="73" spans="1:28" ht="15.75">
-      <c r="A73" s="200">
+      <c r="AA72" s="83"/>
+      <c r="AB72" s="57"/>
+    </row>
+    <row r="73" spans="1:28" ht="15">
+      <c r="A73" s="163">
         <v>68</v>
       </c>
-      <c r="B73" s="130" t="s">
+      <c r="B73" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="80">
+      <c r="C73" s="50">
         <v>7</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -5389,21 +5314,21 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
-      <c r="AA73" s="142"/>
-      <c r="AB73" s="98"/>
-    </row>
-    <row r="74" spans="1:28" ht="15.75">
-      <c r="A74" s="200">
+      <c r="AA73" s="83"/>
+      <c r="AB73" s="57"/>
+    </row>
+    <row r="74" spans="1:28" ht="15">
+      <c r="A74" s="163">
         <v>69</v>
       </c>
-      <c r="B74" s="130" t="s">
+      <c r="B74" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="80">
+      <c r="C74" s="50">
         <v>8</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -5425,21 +5350,21 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
-      <c r="AA74" s="142"/>
-      <c r="AB74" s="98"/>
-    </row>
-    <row r="75" spans="1:28" ht="15.75">
-      <c r="A75" s="200">
+      <c r="AA74" s="83"/>
+      <c r="AB74" s="57"/>
+    </row>
+    <row r="75" spans="1:28" ht="15">
+      <c r="A75" s="163">
         <v>70</v>
       </c>
-      <c r="B75" s="130" t="s">
+      <c r="B75" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="80">
+      <c r="C75" s="50">
         <v>9</v>
       </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -5461,21 +5386,21 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
-      <c r="AA75" s="142"/>
-      <c r="AB75" s="98"/>
-    </row>
-    <row r="76" spans="1:28" ht="15.75">
-      <c r="A76" s="200">
+      <c r="AA75" s="83"/>
+      <c r="AB75" s="57"/>
+    </row>
+    <row r="76" spans="1:28" ht="15">
+      <c r="A76" s="163">
         <v>73</v>
       </c>
-      <c r="B76" s="130" t="s">
+      <c r="B76" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="80">
+      <c r="C76" s="50">
         <v>10</v>
       </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -5497,21 +5422,21 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
-      <c r="AA76" s="142"/>
-      <c r="AB76" s="98"/>
-    </row>
-    <row r="77" spans="1:28" ht="15.75">
-      <c r="A77" s="200">
+      <c r="AA76" s="83"/>
+      <c r="AB76" s="57"/>
+    </row>
+    <row r="77" spans="1:28" ht="15">
+      <c r="A77" s="163">
         <v>74</v>
       </c>
-      <c r="B77" s="130" t="s">
+      <c r="B77" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="80">
+      <c r="C77" s="50">
         <v>11</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -5533,21 +5458,21 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
-      <c r="AA77" s="142"/>
-      <c r="AB77" s="98"/>
-    </row>
-    <row r="78" spans="1:28" ht="15.75">
-      <c r="A78" s="200">
+      <c r="AA77" s="83"/>
+      <c r="AB77" s="57"/>
+    </row>
+    <row r="78" spans="1:28" ht="15">
+      <c r="A78" s="163">
         <v>75</v>
       </c>
-      <c r="B78" s="130" t="s">
+      <c r="B78" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="80">
+      <c r="C78" s="50">
         <v>12</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -5569,21 +5494,21 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
-      <c r="AA78" s="142"/>
-      <c r="AB78" s="98"/>
-    </row>
-    <row r="79" spans="1:28" ht="15.75">
-      <c r="A79" s="200">
+      <c r="AA78" s="83"/>
+      <c r="AB78" s="57"/>
+    </row>
+    <row r="79" spans="1:28" ht="15">
+      <c r="A79" s="163">
         <v>76</v>
       </c>
-      <c r="B79" s="130" t="s">
+      <c r="B79" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="80">
+      <c r="C79" s="50">
         <v>13</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -5605,21 +5530,21 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
-      <c r="AA79" s="142"/>
-      <c r="AB79" s="98"/>
-    </row>
-    <row r="80" spans="1:28" ht="15.75">
-      <c r="A80" s="200">
+      <c r="AA79" s="83"/>
+      <c r="AB79" s="57"/>
+    </row>
+    <row r="80" spans="1:28" ht="15">
+      <c r="A80" s="163">
         <v>77</v>
       </c>
-      <c r="B80" s="130" t="s">
+      <c r="B80" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="80">
+      <c r="C80" s="50">
         <v>14</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -5641,21 +5566,21 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
-      <c r="AA80" s="142"/>
-      <c r="AB80" s="98"/>
-    </row>
-    <row r="81" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A81" s="201">
+      <c r="AA80" s="83"/>
+      <c r="AB80" s="57"/>
+    </row>
+    <row r="81" spans="1:28" ht="16" thickBot="1">
+      <c r="A81" s="164">
         <v>78</v>
       </c>
-      <c r="B81" s="131" t="s">
+      <c r="B81" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="81" t="s">
+      <c r="C81" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -5677,59 +5602,59 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
-      <c r="AA81" s="143"/>
-      <c r="AB81" s="102"/>
-    </row>
-    <row r="82" spans="1:28" ht="15.75">
-      <c r="A82" s="199">
+      <c r="AA81" s="84"/>
+      <c r="AB81" s="60"/>
+    </row>
+    <row r="82" spans="1:28" ht="15">
+      <c r="A82" s="115">
         <v>16</v>
       </c>
-      <c r="B82" s="132" t="s">
+      <c r="B82" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="75">
+      <c r="C82" s="47">
         <v>0</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77" t="s">
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="J82" s="77"/>
-      <c r="K82" s="77"/>
-      <c r="L82" s="77"/>
-      <c r="M82" s="77"/>
-      <c r="N82" s="77"/>
-      <c r="O82" s="77"/>
-      <c r="P82" s="77"/>
-      <c r="Q82" s="77"/>
-      <c r="R82" s="77"/>
-      <c r="S82" s="77"/>
-      <c r="T82" s="77"/>
-      <c r="U82" s="77"/>
-      <c r="V82" s="77"/>
-      <c r="W82" s="77"/>
-      <c r="X82" s="77"/>
-      <c r="Y82" s="77"/>
-      <c r="Z82" s="77"/>
-      <c r="AA82" s="154"/>
-      <c r="AB82" s="109"/>
-    </row>
-    <row r="83" spans="1:28" ht="15.75">
-      <c r="A83" s="200">
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="49"/>
+      <c r="R82" s="49"/>
+      <c r="S82" s="49"/>
+      <c r="T82" s="49"/>
+      <c r="U82" s="49"/>
+      <c r="V82" s="49"/>
+      <c r="W82" s="49"/>
+      <c r="X82" s="49"/>
+      <c r="Y82" s="49"/>
+      <c r="Z82" s="49"/>
+      <c r="AA82" s="87"/>
+      <c r="AB82" s="61"/>
+    </row>
+    <row r="83" spans="1:28" ht="15">
+      <c r="A83" s="116">
         <v>17</v>
       </c>
-      <c r="B83" s="133" t="s">
+      <c r="B83" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C83" s="15">
         <v>1</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -5753,21 +5678,21 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
-      <c r="AA83" s="146"/>
-      <c r="AB83" s="99"/>
-    </row>
-    <row r="84" spans="1:28" ht="15.75">
-      <c r="A84" s="200">
+      <c r="AA83" s="85"/>
+      <c r="AB83" s="58"/>
+    </row>
+    <row r="84" spans="1:28" ht="15">
+      <c r="A84" s="116">
         <v>18</v>
       </c>
-      <c r="B84" s="133" t="s">
+      <c r="B84" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="15">
         <v>2</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -5791,21 +5716,21 @@
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
-      <c r="AA84" s="146"/>
-      <c r="AB84" s="99"/>
-    </row>
-    <row r="85" spans="1:28" ht="15.75">
-      <c r="A85" s="200">
+      <c r="AA84" s="85"/>
+      <c r="AB84" s="58"/>
+    </row>
+    <row r="85" spans="1:28" ht="15">
+      <c r="A85" s="116">
         <v>19</v>
       </c>
-      <c r="B85" s="133" t="s">
+      <c r="B85" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C85" s="15">
         <v>3</v>
       </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -5829,21 +5754,21 @@
         <v>9</v>
       </c>
       <c r="Z85" s="4"/>
-      <c r="AA85" s="146"/>
-      <c r="AB85" s="99"/>
-    </row>
-    <row r="86" spans="1:28" ht="15.75">
-      <c r="A86" s="200">
+      <c r="AA85" s="85"/>
+      <c r="AB85" s="58"/>
+    </row>
+    <row r="86" spans="1:28" ht="15">
+      <c r="A86" s="116">
         <v>20</v>
       </c>
-      <c r="B86" s="133" t="s">
+      <c r="B86" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="15">
         <v>4</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -5867,21 +5792,21 @@
         <v>14</v>
       </c>
       <c r="Z86" s="4"/>
-      <c r="AA86" s="146"/>
-      <c r="AB86" s="99"/>
-    </row>
-    <row r="87" spans="1:28" ht="15.75">
-      <c r="A87" s="200">
+      <c r="AA86" s="85"/>
+      <c r="AB86" s="58"/>
+    </row>
+    <row r="87" spans="1:28" ht="15">
+      <c r="A87" s="116">
         <v>21</v>
       </c>
-      <c r="B87" s="133" t="s">
+      <c r="B87" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="15">
         <v>5</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -5905,21 +5830,21 @@
         <v>15</v>
       </c>
       <c r="Z87" s="4"/>
-      <c r="AA87" s="146"/>
-      <c r="AB87" s="99"/>
-    </row>
-    <row r="88" spans="1:28" ht="15.75">
-      <c r="A88" s="200">
+      <c r="AA87" s="85"/>
+      <c r="AB87" s="58"/>
+    </row>
+    <row r="88" spans="1:28" ht="15">
+      <c r="A88" s="116">
         <v>24</v>
       </c>
-      <c r="B88" s="133" t="s">
+      <c r="B88" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="15">
         <v>6</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -5943,21 +5868,21 @@
         <v>4</v>
       </c>
       <c r="Z88" s="4"/>
-      <c r="AA88" s="146"/>
-      <c r="AB88" s="99"/>
-    </row>
-    <row r="89" spans="1:28" ht="15.75">
-      <c r="A89" s="200">
+      <c r="AA88" s="85"/>
+      <c r="AB88" s="58"/>
+    </row>
+    <row r="89" spans="1:28" ht="15">
+      <c r="A89" s="116">
         <v>25</v>
       </c>
-      <c r="B89" s="133" t="s">
+      <c r="B89" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C89" s="15">
         <v>7</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -5981,21 +5906,21 @@
         <v>5</v>
       </c>
       <c r="Z89" s="4"/>
-      <c r="AA89" s="146"/>
-      <c r="AB89" s="99"/>
-    </row>
-    <row r="90" spans="1:28" ht="15.75">
-      <c r="A90" s="200">
+      <c r="AA89" s="85"/>
+      <c r="AB89" s="58"/>
+    </row>
+    <row r="90" spans="1:28" ht="15">
+      <c r="A90" s="116">
         <v>26</v>
       </c>
-      <c r="B90" s="133" t="s">
+      <c r="B90" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="15">
         <v>8</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -6019,21 +5944,21 @@
         <v>6</v>
       </c>
       <c r="Z90" s="4"/>
-      <c r="AA90" s="146"/>
-      <c r="AB90" s="99"/>
-    </row>
-    <row r="91" spans="1:28" ht="15.75">
-      <c r="A91" s="200">
+      <c r="AA90" s="85"/>
+      <c r="AB90" s="58"/>
+    </row>
+    <row r="91" spans="1:28" ht="15">
+      <c r="A91" s="116">
         <v>27</v>
       </c>
-      <c r="B91" s="133" t="s">
+      <c r="B91" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="15">
         <v>9</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -6057,21 +5982,21 @@
         <v>7</v>
       </c>
       <c r="Z91" s="4"/>
-      <c r="AA91" s="146"/>
-      <c r="AB91" s="99"/>
-    </row>
-    <row r="92" spans="1:28" ht="15.75">
-      <c r="A92" s="200">
+      <c r="AA91" s="85"/>
+      <c r="AB91" s="58"/>
+    </row>
+    <row r="92" spans="1:28" ht="15">
+      <c r="A92" s="116">
         <v>28</v>
       </c>
-      <c r="B92" s="133" t="s">
+      <c r="B92" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="15">
         <v>10</v>
       </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -6095,21 +6020,21 @@
         <v>8</v>
       </c>
       <c r="Z92" s="4"/>
-      <c r="AA92" s="146"/>
-      <c r="AB92" s="99"/>
-    </row>
-    <row r="93" spans="1:28" ht="15.75">
-      <c r="A93" s="200">
+      <c r="AA92" s="85"/>
+      <c r="AB92" s="58"/>
+    </row>
+    <row r="93" spans="1:28" ht="15">
+      <c r="A93" s="116">
         <v>59</v>
       </c>
-      <c r="B93" s="133" t="s">
+      <c r="B93" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="15">
         <v>11</v>
       </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -6131,21 +6056,21 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
-      <c r="AA93" s="146"/>
-      <c r="AB93" s="99"/>
-    </row>
-    <row r="94" spans="1:28" ht="15.75">
-      <c r="A94" s="200">
+      <c r="AA93" s="85"/>
+      <c r="AB93" s="58"/>
+    </row>
+    <row r="94" spans="1:28" ht="15">
+      <c r="A94" s="116">
         <v>60</v>
       </c>
-      <c r="B94" s="133" t="s">
+      <c r="B94" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="15">
         <v>12</v>
       </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -6167,21 +6092,21 @@
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
-      <c r="AA94" s="146"/>
-      <c r="AB94" s="99"/>
-    </row>
-    <row r="95" spans="1:28" ht="15.75">
-      <c r="A95" s="200">
+      <c r="AA94" s="85"/>
+      <c r="AB94" s="58"/>
+    </row>
+    <row r="95" spans="1:28" ht="15">
+      <c r="A95" s="116">
         <v>63</v>
       </c>
-      <c r="B95" s="133" t="s">
+      <c r="B95" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="15">
         <v>13</v>
       </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -6203,21 +6128,21 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
-      <c r="AA95" s="146"/>
-      <c r="AB95" s="99"/>
-    </row>
-    <row r="96" spans="1:28" ht="15.75">
-      <c r="A96" s="200">
+      <c r="AA95" s="85"/>
+      <c r="AB95" s="58"/>
+    </row>
+    <row r="96" spans="1:28" ht="15">
+      <c r="A96" s="116">
         <v>64</v>
       </c>
-      <c r="B96" s="133" t="s">
+      <c r="B96" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="15">
         <v>14</v>
       </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -6239,57 +6164,57 @@
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
-      <c r="AA96" s="146"/>
-      <c r="AB96" s="99"/>
-    </row>
-    <row r="97" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A97" s="201">
+      <c r="AA96" s="85"/>
+      <c r="AB96" s="58"/>
+    </row>
+    <row r="97" spans="1:28" ht="16" thickBot="1">
+      <c r="A97" s="117">
         <v>65</v>
       </c>
-      <c r="B97" s="134" t="s">
+      <c r="B97" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C97" s="16">
         <v>15</v>
       </c>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="73"/>
-      <c r="K97" s="73"/>
-      <c r="L97" s="73"/>
-      <c r="M97" s="73"/>
-      <c r="N97" s="73"/>
-      <c r="O97" s="73"/>
-      <c r="P97" s="73"/>
-      <c r="Q97" s="73"/>
-      <c r="R97" s="73"/>
-      <c r="S97" s="73"/>
-      <c r="T97" s="73"/>
-      <c r="U97" s="73"/>
-      <c r="V97" s="73"/>
-      <c r="W97" s="73"/>
-      <c r="X97" s="73"/>
-      <c r="Y97" s="73"/>
-      <c r="Z97" s="73"/>
-      <c r="AA97" s="155"/>
-      <c r="AB97" s="110"/>
-    </row>
-    <row r="98" spans="1:28" ht="15.75">
-      <c r="A98" s="199">
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="45"/>
+      <c r="N97" s="45"/>
+      <c r="O97" s="45"/>
+      <c r="P97" s="45"/>
+      <c r="Q97" s="45"/>
+      <c r="R97" s="45"/>
+      <c r="S97" s="45"/>
+      <c r="T97" s="45"/>
+      <c r="U97" s="45"/>
+      <c r="V97" s="45"/>
+      <c r="W97" s="45"/>
+      <c r="X97" s="45"/>
+      <c r="Y97" s="45"/>
+      <c r="Z97" s="45"/>
+      <c r="AA97" s="88"/>
+      <c r="AB97" s="62"/>
+    </row>
+    <row r="98" spans="1:28" ht="15">
+      <c r="A98" s="162">
         <v>66</v>
       </c>
-      <c r="B98" s="129" t="s">
+      <c r="B98" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="13">
         <v>0</v>
       </c>
-      <c r="D98" s="166"/>
-      <c r="E98" s="166"/>
+      <c r="D98" s="95"/>
+      <c r="E98" s="95"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -6311,21 +6236,21 @@
       <c r="X98" s="6"/>
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
-      <c r="AA98" s="156"/>
-      <c r="AB98" s="111"/>
-    </row>
-    <row r="99" spans="1:28" ht="15.75">
-      <c r="A99" s="200">
+      <c r="AA98" s="89"/>
+      <c r="AB98" s="63"/>
+    </row>
+    <row r="99" spans="1:28" ht="15">
+      <c r="A99" s="163">
         <v>67</v>
       </c>
-      <c r="B99" s="130" t="s">
+      <c r="B99" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="14">
         <v>1</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -6347,21 +6272,21 @@
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
-      <c r="AA99" s="142"/>
-      <c r="AB99" s="98"/>
-    </row>
-    <row r="100" spans="1:28" ht="15.75">
-      <c r="A100" s="200">
+      <c r="AA99" s="83"/>
+      <c r="AB99" s="57"/>
+    </row>
+    <row r="100" spans="1:28" ht="15">
+      <c r="A100" s="163">
         <v>106</v>
       </c>
-      <c r="B100" s="130" t="s">
+      <c r="B100" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C100" s="14">
         <v>2</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -6383,21 +6308,21 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
-      <c r="AA100" s="142"/>
-      <c r="AB100" s="98"/>
-    </row>
-    <row r="101" spans="1:28" ht="15.75">
-      <c r="A101" s="200">
+      <c r="AA100" s="83"/>
+      <c r="AB100" s="57"/>
+    </row>
+    <row r="101" spans="1:28" ht="15">
+      <c r="A101" s="163">
         <v>107</v>
       </c>
-      <c r="B101" s="130" t="s">
+      <c r="B101" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="16">
+      <c r="C101" s="14">
         <v>3</v>
       </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -6419,21 +6344,21 @@
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
-      <c r="AA101" s="142"/>
-      <c r="AB101" s="98"/>
-    </row>
-    <row r="102" spans="1:28" ht="15.75">
-      <c r="A102" s="200">
+      <c r="AA101" s="83"/>
+      <c r="AB101" s="57"/>
+    </row>
+    <row r="102" spans="1:28" ht="15">
+      <c r="A102" s="163">
         <v>108</v>
       </c>
-      <c r="B102" s="130" t="s">
+      <c r="B102" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="16">
+      <c r="C102" s="14">
         <v>4</v>
       </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -6455,21 +6380,21 @@
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
-      <c r="AA102" s="142"/>
-      <c r="AB102" s="98"/>
-    </row>
-    <row r="103" spans="1:28" ht="15.75">
-      <c r="A103" s="200">
+      <c r="AA102" s="83"/>
+      <c r="AB102" s="57"/>
+    </row>
+    <row r="103" spans="1:28" ht="15">
+      <c r="A103" s="163">
         <v>109</v>
       </c>
-      <c r="B103" s="130" t="s">
+      <c r="B103" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C103" s="16">
+      <c r="C103" s="14">
         <v>5</v>
       </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -6491,21 +6416,21 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
-      <c r="AA103" s="142"/>
-      <c r="AB103" s="98"/>
-    </row>
-    <row r="104" spans="1:28" ht="15.75">
-      <c r="A104" s="200">
+      <c r="AA103" s="83"/>
+      <c r="AB103" s="57"/>
+    </row>
+    <row r="104" spans="1:28" ht="15">
+      <c r="A104" s="163">
         <v>110</v>
       </c>
-      <c r="B104" s="130" t="s">
+      <c r="B104" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="14">
         <v>6</v>
       </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -6527,21 +6452,21 @@
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
-      <c r="AA104" s="142"/>
-      <c r="AB104" s="98"/>
-    </row>
-    <row r="105" spans="1:28" ht="15.75">
-      <c r="A105" s="200">
+      <c r="AA104" s="83"/>
+      <c r="AB104" s="57"/>
+    </row>
+    <row r="105" spans="1:28" ht="15">
+      <c r="A105" s="163">
         <v>111</v>
       </c>
-      <c r="B105" s="130" t="s">
+      <c r="B105" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="16">
+      <c r="C105" s="14">
         <v>7</v>
       </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -6563,21 +6488,21 @@
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
-      <c r="AA105" s="142"/>
-      <c r="AB105" s="98"/>
-    </row>
-    <row r="106" spans="1:28" ht="15.75">
-      <c r="A106" s="200">
+      <c r="AA105" s="83"/>
+      <c r="AB105" s="57"/>
+    </row>
+    <row r="106" spans="1:28" ht="15">
+      <c r="A106" s="163">
         <v>112</v>
       </c>
-      <c r="B106" s="130" t="s">
+      <c r="B106" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="16">
+      <c r="C106" s="14">
         <v>8</v>
       </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -6590,7 +6515,7 @@
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
-      <c r="R106" s="189" t="s">
+      <c r="R106" s="107" t="s">
         <v>144</v>
       </c>
       <c r="S106" s="5"/>
@@ -6601,21 +6526,21 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
-      <c r="AA106" s="142"/>
-      <c r="AB106" s="98"/>
-    </row>
-    <row r="107" spans="1:28" ht="15.75">
-      <c r="A107" s="200">
+      <c r="AA106" s="83"/>
+      <c r="AB106" s="57"/>
+    </row>
+    <row r="107" spans="1:28" ht="15">
+      <c r="A107" s="163">
         <v>152</v>
       </c>
-      <c r="B107" s="130" t="s">
+      <c r="B107" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="16">
+      <c r="C107" s="14">
         <v>9</v>
       </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -6637,21 +6562,21 @@
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
-      <c r="AA107" s="142"/>
-      <c r="AB107" s="98"/>
-    </row>
-    <row r="108" spans="1:28" ht="15.75">
-      <c r="A108" s="200">
+      <c r="AA107" s="83"/>
+      <c r="AB107" s="57"/>
+    </row>
+    <row r="108" spans="1:28" ht="15">
+      <c r="A108" s="163">
         <v>153</v>
       </c>
-      <c r="B108" s="130" t="s">
+      <c r="B108" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="16">
+      <c r="C108" s="14">
         <v>10</v>
       </c>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -6673,21 +6598,21 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
-      <c r="AA108" s="142"/>
-      <c r="AB108" s="98"/>
-    </row>
-    <row r="109" spans="1:28" ht="15.75">
-      <c r="A109" s="200">
+      <c r="AA108" s="83"/>
+      <c r="AB108" s="57"/>
+    </row>
+    <row r="109" spans="1:28" ht="15">
+      <c r="A109" s="163">
         <v>154</v>
       </c>
-      <c r="B109" s="130" t="s">
+      <c r="B109" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C109" s="14">
         <v>11</v>
       </c>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -6699,10 +6624,10 @@
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
-      <c r="Q109" s="189" t="s">
+      <c r="Q109" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="R109" s="189" t="s">
+      <c r="R109" s="107" t="s">
         <v>158</v>
       </c>
       <c r="S109" s="5"/>
@@ -6713,21 +6638,21 @@
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
-      <c r="AA109" s="142"/>
-      <c r="AB109" s="98"/>
-    </row>
-    <row r="110" spans="1:28" ht="15.75">
-      <c r="A110" s="200">
+      <c r="AA109" s="83"/>
+      <c r="AB109" s="57"/>
+    </row>
+    <row r="110" spans="1:28" ht="15">
+      <c r="A110" s="163">
         <v>155</v>
       </c>
-      <c r="B110" s="130" t="s">
+      <c r="B110" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="16">
+      <c r="C110" s="14">
         <v>12</v>
       </c>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -6749,21 +6674,21 @@
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
-      <c r="AA110" s="142"/>
-      <c r="AB110" s="98"/>
-    </row>
-    <row r="111" spans="1:28" ht="15.75">
-      <c r="A111" s="200">
+      <c r="AA110" s="83"/>
+      <c r="AB110" s="57"/>
+    </row>
+    <row r="111" spans="1:28" ht="15">
+      <c r="A111" s="163">
         <v>156</v>
       </c>
-      <c r="B111" s="130" t="s">
+      <c r="B111" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="16">
+      <c r="C111" s="14">
         <v>13</v>
       </c>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -6775,10 +6700,10 @@
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
-      <c r="Q111" s="189" t="s">
+      <c r="Q111" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="R111" s="189" t="s">
+      <c r="R111" s="107" t="s">
         <v>159</v>
       </c>
       <c r="S111" s="5"/>
@@ -6789,21 +6714,21 @@
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
-      <c r="AA111" s="142"/>
-      <c r="AB111" s="98"/>
-    </row>
-    <row r="112" spans="1:28" ht="15.75">
-      <c r="A112" s="200">
+      <c r="AA111" s="83"/>
+      <c r="AB111" s="57"/>
+    </row>
+    <row r="112" spans="1:28" ht="15">
+      <c r="A112" s="163">
         <v>157</v>
       </c>
-      <c r="B112" s="130" t="s">
+      <c r="B112" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="16">
+      <c r="C112" s="14">
         <v>14</v>
       </c>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -6815,10 +6740,10 @@
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
-      <c r="Q112" s="189" t="s">
+      <c r="Q112" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="R112" s="189" t="s">
+      <c r="R112" s="107" t="s">
         <v>160</v>
       </c>
       <c r="S112" s="5"/>
@@ -6829,21 +6754,21 @@
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
-      <c r="AA112" s="142"/>
-      <c r="AB112" s="98"/>
-    </row>
-    <row r="113" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A113" s="201">
+      <c r="AA112" s="83"/>
+      <c r="AB112" s="57"/>
+    </row>
+    <row r="113" spans="1:28" ht="16" thickBot="1">
+      <c r="A113" s="164">
         <v>160</v>
       </c>
-      <c r="B113" s="131" t="s">
+      <c r="B113" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="20">
+      <c r="C113" s="17">
         <v>15</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -6865,21 +6790,21 @@
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
-      <c r="AA113" s="143"/>
-      <c r="AB113" s="102"/>
-    </row>
-    <row r="114" spans="1:28" ht="15.75">
-      <c r="A114" s="199">
+      <c r="AA113" s="84"/>
+      <c r="AB113" s="60"/>
+    </row>
+    <row r="114" spans="1:28" ht="15">
+      <c r="A114" s="115">
         <v>29</v>
       </c>
-      <c r="B114" s="132" t="s">
+      <c r="B114" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="74">
+      <c r="C114" s="46">
         <v>0</v>
       </c>
-      <c r="D114" s="171"/>
-      <c r="E114" s="167"/>
+      <c r="D114" s="98"/>
+      <c r="E114" s="96"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
@@ -6901,19 +6826,21 @@
       <c r="X114" s="8"/>
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
-      <c r="AA114" s="157"/>
-      <c r="AB114" s="112"/>
-    </row>
-    <row r="115" spans="1:28" ht="15.75">
-      <c r="A115" s="200">
+      <c r="AA114" s="90"/>
+      <c r="AB114" s="64"/>
+    </row>
+    <row r="115" spans="1:28" ht="15">
+      <c r="A115" s="116">
         <v>30</v>
       </c>
-      <c r="B115" s="133"/>
-      <c r="C115" s="74">
+      <c r="B115" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="46">
         <v>1</v>
       </c>
-      <c r="D115" s="172"/>
-      <c r="E115" s="13"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="11"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -6935,19 +6862,21 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
-      <c r="AA115" s="146"/>
-      <c r="AB115" s="99"/>
-    </row>
-    <row r="116" spans="1:28" ht="15.75">
-      <c r="A116" s="200">
+      <c r="AA115" s="85"/>
+      <c r="AB115" s="58"/>
+    </row>
+    <row r="116" spans="1:28" ht="15">
+      <c r="A116" s="116">
         <v>43</v>
       </c>
-      <c r="B116" s="133"/>
-      <c r="C116" s="74">
+      <c r="B116" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="46">
         <v>2</v>
       </c>
-      <c r="D116" s="172"/>
-      <c r="E116" s="13"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="11"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -6960,7 +6889,7 @@
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
-      <c r="R116" s="188" t="s">
+      <c r="R116" s="106" t="s">
         <v>161</v>
       </c>
       <c r="S116" s="4"/>
@@ -6971,19 +6900,21 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
-      <c r="AA116" s="146"/>
-      <c r="AB116" s="99"/>
-    </row>
-    <row r="117" spans="1:28" ht="15.75">
-      <c r="A117" s="200">
+      <c r="AA116" s="85"/>
+      <c r="AB116" s="58"/>
+    </row>
+    <row r="117" spans="1:28" ht="15">
+      <c r="A117" s="116">
         <v>44</v>
       </c>
-      <c r="B117" s="133"/>
-      <c r="C117" s="74">
+      <c r="B117" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="46">
         <v>3</v>
       </c>
-      <c r="D117" s="172"/>
-      <c r="E117" s="13"/>
+      <c r="D117" s="99"/>
+      <c r="E117" s="11"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -6996,7 +6927,7 @@
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
-      <c r="R117" s="188" t="s">
+      <c r="R117" s="106" t="s">
         <v>162</v>
       </c>
       <c r="S117" s="4"/>
@@ -7007,19 +6938,21 @@
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
-      <c r="AA117" s="146"/>
-      <c r="AB117" s="99"/>
-    </row>
-    <row r="118" spans="1:28" ht="15.75">
-      <c r="A118" s="200">
+      <c r="AA117" s="85"/>
+      <c r="AB117" s="58"/>
+    </row>
+    <row r="118" spans="1:28" ht="15">
+      <c r="A118" s="116">
         <v>45</v>
       </c>
-      <c r="B118" s="133"/>
-      <c r="C118" s="74">
+      <c r="B118" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="46">
         <v>4</v>
       </c>
-      <c r="D118" s="172"/>
-      <c r="E118" s="13"/>
+      <c r="D118" s="99"/>
+      <c r="E118" s="11"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -7032,7 +6965,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
-      <c r="P118" s="188" t="s">
+      <c r="P118" s="106" t="s">
         <v>79</v>
       </c>
       <c r="Q118" s="4"/>
@@ -7045,19 +6978,21 @@
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
-      <c r="AA118" s="146"/>
-      <c r="AB118" s="99"/>
-    </row>
-    <row r="119" spans="1:28" ht="15.75">
-      <c r="A119" s="200">
+      <c r="AA118" s="85"/>
+      <c r="AB118" s="58"/>
+    </row>
+    <row r="119" spans="1:28" ht="15">
+      <c r="A119" s="116">
         <v>46</v>
       </c>
-      <c r="B119" s="133"/>
-      <c r="C119" s="74">
+      <c r="B119" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="46">
         <v>5</v>
       </c>
-      <c r="D119" s="172"/>
-      <c r="E119" s="13"/>
+      <c r="D119" s="99"/>
+      <c r="E119" s="11"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -7081,19 +7016,21 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
-      <c r="AA119" s="146"/>
-      <c r="AB119" s="99"/>
-    </row>
-    <row r="120" spans="1:28" ht="15.75">
-      <c r="A120" s="200">
+      <c r="AA119" s="85"/>
+      <c r="AB119" s="58"/>
+    </row>
+    <row r="120" spans="1:28" ht="15">
+      <c r="A120" s="116">
         <v>83</v>
       </c>
-      <c r="B120" s="133"/>
-      <c r="C120" s="74">
+      <c r="B120" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="46">
         <v>6</v>
       </c>
-      <c r="D120" s="172"/>
-      <c r="E120" s="13"/>
+      <c r="D120" s="99"/>
+      <c r="E120" s="11"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -7108,7 +7045,7 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
       <c r="Q120" s="4"/>
-      <c r="R120" s="188" t="s">
+      <c r="R120" s="106" t="s">
         <v>163</v>
       </c>
       <c r="S120" s="4"/>
@@ -7119,19 +7056,21 @@
       <c r="X120" s="4"/>
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
-      <c r="AA120" s="146"/>
-      <c r="AB120" s="99"/>
-    </row>
-    <row r="121" spans="1:28" ht="15.75">
-      <c r="A121" s="200">
+      <c r="AA120" s="85"/>
+      <c r="AB120" s="58"/>
+    </row>
+    <row r="121" spans="1:28" ht="15">
+      <c r="A121" s="116">
         <v>84</v>
       </c>
-      <c r="B121" s="133"/>
-      <c r="C121" s="74">
+      <c r="B121" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="46">
         <v>7</v>
       </c>
-      <c r="D121" s="172"/>
-      <c r="E121" s="13"/>
+      <c r="D121" s="99"/>
+      <c r="E121" s="11"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -7146,7 +7085,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
-      <c r="R121" s="188" t="s">
+      <c r="R121" s="106" t="s">
         <v>164</v>
       </c>
       <c r="S121" s="4"/>
@@ -7157,19 +7096,21 @@
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
-      <c r="AA121" s="146"/>
-      <c r="AB121" s="99"/>
-    </row>
-    <row r="122" spans="1:28" ht="15.75">
-      <c r="A122" s="200">
+      <c r="AA121" s="85"/>
+      <c r="AB121" s="58"/>
+    </row>
+    <row r="122" spans="1:28" ht="15">
+      <c r="A122" s="116">
         <v>85</v>
       </c>
-      <c r="B122" s="133"/>
-      <c r="C122" s="74">
+      <c r="B122" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="46">
         <v>8</v>
       </c>
-      <c r="D122" s="172"/>
-      <c r="E122" s="13"/>
+      <c r="D122" s="99"/>
+      <c r="E122" s="11"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -7193,19 +7134,21 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
-      <c r="AA122" s="146"/>
-      <c r="AB122" s="99"/>
-    </row>
-    <row r="123" spans="1:28" ht="15.75">
-      <c r="A123" s="200">
+      <c r="AA122" s="85"/>
+      <c r="AB122" s="58"/>
+    </row>
+    <row r="123" spans="1:28" ht="15">
+      <c r="A123" s="116">
         <v>86</v>
       </c>
-      <c r="B123" s="133"/>
-      <c r="C123" s="74">
+      <c r="B123" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="46">
         <v>9</v>
       </c>
-      <c r="D123" s="172"/>
-      <c r="E123" s="13"/>
+      <c r="D123" s="99"/>
+      <c r="E123" s="11"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -7229,19 +7172,21 @@
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
-      <c r="AA123" s="146"/>
-      <c r="AB123" s="99"/>
-    </row>
-    <row r="124" spans="1:28" ht="15.75">
-      <c r="A124" s="200">
+      <c r="AA123" s="85"/>
+      <c r="AB123" s="58"/>
+    </row>
+    <row r="124" spans="1:28" ht="15">
+      <c r="A124" s="116">
         <v>87</v>
       </c>
-      <c r="B124" s="133"/>
-      <c r="C124" s="74">
+      <c r="B124" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D124" s="172"/>
-      <c r="E124" s="13"/>
+      <c r="C124" s="46">
+        <v>10</v>
+      </c>
+      <c r="D124" s="99"/>
+      <c r="E124" s="11"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -7263,19 +7208,21 @@
       <c r="X124" s="4"/>
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
-      <c r="AA124" s="146"/>
-      <c r="AB124" s="99"/>
-    </row>
-    <row r="125" spans="1:28" ht="15.75">
-      <c r="A125" s="200">
+      <c r="AA124" s="85"/>
+      <c r="AB124" s="58"/>
+    </row>
+    <row r="125" spans="1:28" ht="15">
+      <c r="A125" s="116">
         <v>88</v>
       </c>
-      <c r="B125" s="133"/>
-      <c r="C125" s="74">
+      <c r="B125" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="46">
         <v>11</v>
       </c>
-      <c r="D125" s="172"/>
-      <c r="E125" s="13"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="11"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -7297,19 +7244,21 @@
       <c r="X125" s="4"/>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
-      <c r="AA125" s="146"/>
-      <c r="AB125" s="99"/>
-    </row>
-    <row r="126" spans="1:28" ht="15.75">
-      <c r="A126" s="200">
+      <c r="AA125" s="85"/>
+      <c r="AB125" s="58"/>
+    </row>
+    <row r="126" spans="1:28" ht="15">
+      <c r="A126" s="116">
         <v>89</v>
       </c>
-      <c r="B126" s="133"/>
-      <c r="C126" s="74">
+      <c r="B126" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="46">
         <v>12</v>
       </c>
-      <c r="D126" s="172"/>
-      <c r="E126" s="13"/>
+      <c r="D126" s="99"/>
+      <c r="E126" s="11"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -7331,19 +7280,21 @@
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
-      <c r="AA126" s="146"/>
-      <c r="AB126" s="99"/>
-    </row>
-    <row r="127" spans="1:28" ht="15.75">
-      <c r="A127" s="200">
+      <c r="AA126" s="85"/>
+      <c r="AB126" s="58"/>
+    </row>
+    <row r="127" spans="1:28" ht="15">
+      <c r="A127" s="116">
         <v>128</v>
       </c>
-      <c r="B127" s="133"/>
-      <c r="C127" s="74">
+      <c r="B127" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="46">
         <v>13</v>
       </c>
-      <c r="D127" s="172"/>
-      <c r="E127" s="13"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="11"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -7367,19 +7318,21 @@
       <c r="X127" s="4"/>
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
-      <c r="AA127" s="146"/>
-      <c r="AB127" s="99"/>
-    </row>
-    <row r="128" spans="1:28" ht="15.75">
-      <c r="A128" s="200">
+      <c r="AA127" s="85"/>
+      <c r="AB127" s="58"/>
+    </row>
+    <row r="128" spans="1:28" ht="15">
+      <c r="A128" s="116">
         <v>129</v>
       </c>
-      <c r="B128" s="133"/>
-      <c r="C128" s="74">
+      <c r="B128" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="46">
         <v>14</v>
       </c>
-      <c r="D128" s="172"/>
-      <c r="E128" s="13"/>
+      <c r="D128" s="99"/>
+      <c r="E128" s="11"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -7401,19 +7354,21 @@
       <c r="X128" s="4"/>
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
-      <c r="AA128" s="146"/>
-      <c r="AB128" s="99"/>
-    </row>
-    <row r="129" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A129" s="201">
+      <c r="AA128" s="85"/>
+      <c r="AB128" s="58"/>
+    </row>
+    <row r="129" spans="1:28" ht="16" thickBot="1">
+      <c r="A129" s="117">
         <v>130</v>
       </c>
-      <c r="B129" s="134"/>
-      <c r="C129" s="74">
+      <c r="B129" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="46">
         <v>15</v>
       </c>
-      <c r="D129" s="173"/>
-      <c r="E129" s="165"/>
+      <c r="D129" s="100"/>
+      <c r="E129" s="94"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -7435,165 +7390,173 @@
       <c r="X129" s="9"/>
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
-      <c r="AA129" s="147"/>
-      <c r="AB129" s="101"/>
-    </row>
-    <row r="130" spans="1:28" ht="15.75">
-      <c r="A130" s="199">
+      <c r="AA129" s="86"/>
+      <c r="AB129" s="59"/>
+    </row>
+    <row r="130" spans="1:28" ht="15">
+      <c r="A130" s="162">
         <v>131</v>
       </c>
-      <c r="B130" s="129" t="s">
+      <c r="B130" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="69">
+      <c r="C130" s="160">
         <v>0</v>
       </c>
-      <c r="D130" s="174"/>
-      <c r="E130" s="168"/>
-      <c r="F130" s="70" t="s">
+      <c r="D130" s="161"/>
+      <c r="E130" s="95"/>
+      <c r="F130" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G130" s="70"/>
-      <c r="H130" s="70"/>
-      <c r="I130" s="70"/>
-      <c r="J130" s="70"/>
-      <c r="K130" s="70"/>
-      <c r="L130" s="70"/>
-      <c r="M130" s="70"/>
-      <c r="N130" s="70"/>
-      <c r="O130" s="70"/>
-      <c r="P130" s="70"/>
-      <c r="Q130" s="70"/>
-      <c r="R130" s="70"/>
-      <c r="S130" s="70"/>
-      <c r="T130" s="70"/>
-      <c r="U130" s="70"/>
-      <c r="V130" s="70"/>
-      <c r="W130" s="70"/>
-      <c r="X130" s="70"/>
-      <c r="Y130" s="70"/>
-      <c r="Z130" s="70"/>
-      <c r="AA130" s="158"/>
-      <c r="AB130" s="113"/>
-    </row>
-    <row r="131" spans="1:28" ht="15.75">
-      <c r="A131" s="200">
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="6"/>
+      <c r="T130" s="6"/>
+      <c r="U130" s="6"/>
+      <c r="V130" s="6"/>
+      <c r="W130" s="6"/>
+      <c r="X130" s="6"/>
+      <c r="Y130" s="6"/>
+      <c r="Z130" s="6"/>
+      <c r="AA130" s="89"/>
+      <c r="AB130" s="63"/>
+    </row>
+    <row r="131" spans="1:28" ht="15">
+      <c r="A131" s="163">
         <v>132</v>
       </c>
-      <c r="B131" s="130"/>
-      <c r="C131" s="71">
+      <c r="B131" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="18">
         <v>1</v>
       </c>
-      <c r="D131" s="175"/>
-      <c r="E131" s="164"/>
-      <c r="F131" s="11" t="s">
+      <c r="D131" s="101"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="11"/>
-      <c r="O131" s="11"/>
-      <c r="P131" s="11"/>
-      <c r="Q131" s="11"/>
-      <c r="R131" s="11"/>
-      <c r="S131" s="11"/>
-      <c r="T131" s="11"/>
-      <c r="U131" s="11"/>
-      <c r="V131" s="11"/>
-      <c r="W131" s="11"/>
-      <c r="X131" s="11"/>
-      <c r="Y131" s="11"/>
-      <c r="Z131" s="11"/>
-      <c r="AA131" s="145"/>
-      <c r="AB131" s="100"/>
-    </row>
-    <row r="132" spans="1:28" ht="15.75">
-      <c r="A132" s="200">
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
+      <c r="W131" s="5"/>
+      <c r="X131" s="5"/>
+      <c r="Y131" s="5"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="83"/>
+      <c r="AB131" s="57"/>
+    </row>
+    <row r="132" spans="1:28" ht="15">
+      <c r="A132" s="163">
         <v>133</v>
       </c>
-      <c r="B132" s="130"/>
-      <c r="C132" s="71">
+      <c r="B132" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="18">
         <v>2</v>
       </c>
-      <c r="D132" s="175"/>
-      <c r="E132" s="164"/>
-      <c r="F132" s="11" t="s">
+      <c r="D132" s="101"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="11"/>
-      <c r="O132" s="11"/>
-      <c r="P132" s="11"/>
-      <c r="Q132" s="11"/>
-      <c r="R132" s="11"/>
-      <c r="S132" s="11"/>
-      <c r="T132" s="11"/>
-      <c r="U132" s="11"/>
-      <c r="V132" s="11"/>
-      <c r="W132" s="11"/>
-      <c r="X132" s="11"/>
-      <c r="Y132" s="11"/>
-      <c r="Z132" s="11"/>
-      <c r="AA132" s="145"/>
-      <c r="AB132" s="100"/>
-    </row>
-    <row r="133" spans="1:28" ht="15.75">
-      <c r="A133" s="200">
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+      <c r="W132" s="5"/>
+      <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
+      <c r="AA132" s="83"/>
+      <c r="AB132" s="57"/>
+    </row>
+    <row r="133" spans="1:28" ht="15">
+      <c r="A133" s="163">
         <v>134</v>
       </c>
-      <c r="B133" s="130"/>
-      <c r="C133" s="71">
+      <c r="B133" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="18">
         <v>3</v>
       </c>
-      <c r="D133" s="175"/>
-      <c r="E133" s="164"/>
-      <c r="F133" s="11" t="s">
+      <c r="D133" s="101"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
-      <c r="O133" s="11"/>
-      <c r="P133" s="11"/>
-      <c r="Q133" s="11"/>
-      <c r="R133" s="11"/>
-      <c r="S133" s="11"/>
-      <c r="T133" s="11"/>
-      <c r="U133" s="11"/>
-      <c r="V133" s="11"/>
-      <c r="W133" s="11"/>
-      <c r="X133" s="11"/>
-      <c r="Y133" s="11"/>
-      <c r="Z133" s="11"/>
-      <c r="AA133" s="145"/>
-      <c r="AB133" s="100"/>
-    </row>
-    <row r="134" spans="1:28" ht="15.75">
-      <c r="A134" s="200">
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+      <c r="W133" s="5"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="83"/>
+      <c r="AB133" s="57"/>
+    </row>
+    <row r="134" spans="1:28" ht="15">
+      <c r="A134" s="163">
         <v>173</v>
       </c>
-      <c r="B134" s="130"/>
-      <c r="C134" s="21">
+      <c r="B134" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="18">
         <v>4</v>
       </c>
-      <c r="D134" s="176"/>
-      <c r="E134" s="12"/>
+      <c r="D134" s="101"/>
+      <c r="E134" s="10"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
@@ -7615,121 +7578,129 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
-      <c r="AA134" s="142"/>
-      <c r="AB134" s="98"/>
-    </row>
-    <row r="135" spans="1:28" ht="15.75">
-      <c r="A135" s="200">
+      <c r="AA134" s="83"/>
+      <c r="AB134" s="57"/>
+    </row>
+    <row r="135" spans="1:28" ht="15">
+      <c r="A135" s="163">
         <v>174</v>
       </c>
-      <c r="B135" s="130"/>
-      <c r="C135" s="67">
+      <c r="B135" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="18">
         <v>5</v>
       </c>
-      <c r="D135" s="177"/>
-      <c r="E135" s="169"/>
-      <c r="F135" s="68"/>
-      <c r="G135" s="68"/>
-      <c r="H135" s="68"/>
-      <c r="I135" s="68"/>
-      <c r="J135" s="68"/>
-      <c r="K135" s="68"/>
-      <c r="L135" s="68"/>
-      <c r="M135" s="68"/>
-      <c r="N135" s="68"/>
-      <c r="O135" s="68"/>
-      <c r="P135" s="68"/>
-      <c r="Q135" s="68"/>
-      <c r="R135" s="68"/>
-      <c r="S135" s="68"/>
-      <c r="T135" s="68"/>
-      <c r="U135" s="68"/>
-      <c r="V135" s="68"/>
-      <c r="W135" s="68"/>
-      <c r="X135" s="68"/>
-      <c r="Y135" s="68"/>
-      <c r="Z135" s="68"/>
-      <c r="AA135" s="159"/>
-      <c r="AB135" s="114"/>
-    </row>
-    <row r="136" spans="1:28" ht="15.75">
-      <c r="A136" s="200">
+      <c r="D135" s="101"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+      <c r="W135" s="5"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+      <c r="AA135" s="83"/>
+      <c r="AB135" s="57"/>
+    </row>
+    <row r="136" spans="1:28" ht="15">
+      <c r="A136" s="163">
         <v>175</v>
       </c>
-      <c r="B136" s="130"/>
-      <c r="C136" s="67">
+      <c r="B136" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="18">
         <v>6</v>
       </c>
-      <c r="D136" s="177"/>
-      <c r="E136" s="169"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="68"/>
-      <c r="H136" s="68"/>
-      <c r="I136" s="68"/>
-      <c r="J136" s="68"/>
-      <c r="K136" s="68"/>
-      <c r="L136" s="68"/>
-      <c r="M136" s="68"/>
-      <c r="N136" s="68"/>
-      <c r="O136" s="68"/>
-      <c r="P136" s="68"/>
-      <c r="Q136" s="68"/>
-      <c r="R136" s="68"/>
-      <c r="S136" s="68"/>
-      <c r="T136" s="68"/>
-      <c r="U136" s="68"/>
-      <c r="V136" s="68"/>
-      <c r="W136" s="68"/>
-      <c r="X136" s="68"/>
-      <c r="Y136" s="68"/>
-      <c r="Z136" s="68"/>
-      <c r="AA136" s="159"/>
-      <c r="AB136" s="114"/>
-    </row>
-    <row r="137" spans="1:28" ht="15.75">
-      <c r="A137" s="200">
+      <c r="D136" s="101"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
+      <c r="W136" s="5"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5"/>
+      <c r="Z136" s="5"/>
+      <c r="AA136" s="83"/>
+      <c r="AB136" s="57"/>
+    </row>
+    <row r="137" spans="1:28" ht="15">
+      <c r="A137" s="163">
         <v>176</v>
       </c>
-      <c r="B137" s="130"/>
-      <c r="C137" s="67">
+      <c r="B137" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="18">
         <v>7</v>
       </c>
-      <c r="D137" s="177"/>
-      <c r="E137" s="169"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="68"/>
-      <c r="I137" s="68"/>
-      <c r="J137" s="68"/>
-      <c r="K137" s="68"/>
-      <c r="L137" s="68"/>
-      <c r="M137" s="68"/>
-      <c r="N137" s="68"/>
-      <c r="O137" s="68"/>
-      <c r="P137" s="68"/>
-      <c r="Q137" s="68"/>
-      <c r="R137" s="68"/>
-      <c r="S137" s="68"/>
-      <c r="T137" s="68"/>
-      <c r="U137" s="68"/>
-      <c r="V137" s="68"/>
-      <c r="W137" s="68"/>
-      <c r="X137" s="68"/>
-      <c r="Y137" s="68"/>
-      <c r="Z137" s="68"/>
-      <c r="AA137" s="159"/>
-      <c r="AB137" s="114"/>
-    </row>
-    <row r="138" spans="1:28" ht="15.75">
-      <c r="A138" s="200">
+      <c r="D137" s="101"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+      <c r="W137" s="5"/>
+      <c r="X137" s="5"/>
+      <c r="Y137" s="5"/>
+      <c r="Z137" s="5"/>
+      <c r="AA137" s="83"/>
+      <c r="AB137" s="57"/>
+    </row>
+    <row r="138" spans="1:28" ht="15">
+      <c r="A138" s="163">
         <v>7</v>
       </c>
-      <c r="B138" s="130"/>
-      <c r="C138" s="21">
+      <c r="B138" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="18">
         <v>8</v>
       </c>
-      <c r="D138" s="176"/>
-      <c r="E138" s="12"/>
+      <c r="D138" s="101"/>
+      <c r="E138" s="10"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -7751,19 +7722,21 @@
       <c r="X138" s="5"/>
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
-      <c r="AA138" s="142"/>
-      <c r="AB138" s="98"/>
-    </row>
-    <row r="139" spans="1:28" ht="15.75">
-      <c r="A139" s="200">
+      <c r="AA138" s="83"/>
+      <c r="AB138" s="57"/>
+    </row>
+    <row r="139" spans="1:28" ht="15">
+      <c r="A139" s="163">
         <v>11</v>
       </c>
-      <c r="B139" s="130"/>
-      <c r="C139" s="21">
+      <c r="B139" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="18">
         <v>9</v>
       </c>
-      <c r="D139" s="176"/>
-      <c r="E139" s="12"/>
+      <c r="D139" s="101"/>
+      <c r="E139" s="10"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -7787,55 +7760,59 @@
       <c r="X139" s="5"/>
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
-      <c r="AA139" s="142"/>
-      <c r="AB139" s="98"/>
-    </row>
-    <row r="140" spans="1:28" ht="15.75">
-      <c r="A140" s="200">
+      <c r="AA139" s="83"/>
+      <c r="AB139" s="57"/>
+    </row>
+    <row r="140" spans="1:28" ht="15">
+      <c r="A140" s="163">
         <v>12</v>
       </c>
-      <c r="B140" s="130"/>
-      <c r="C140" s="192">
+      <c r="B140" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="108">
         <v>10</v>
       </c>
-      <c r="D140" s="193"/>
-      <c r="E140" s="170"/>
-      <c r="F140" s="194"/>
-      <c r="G140" s="194"/>
-      <c r="H140" s="194"/>
-      <c r="I140" s="194"/>
-      <c r="J140" s="194"/>
-      <c r="K140" s="194"/>
-      <c r="L140" s="194"/>
-      <c r="M140" s="194"/>
-      <c r="N140" s="194"/>
-      <c r="O140" s="194"/>
-      <c r="P140" s="194"/>
-      <c r="Q140" s="197" t="s">
+      <c r="D140" s="109"/>
+      <c r="E140" s="97"/>
+      <c r="F140" s="110"/>
+      <c r="G140" s="110"/>
+      <c r="H140" s="110"/>
+      <c r="I140" s="110"/>
+      <c r="J140" s="110"/>
+      <c r="K140" s="110"/>
+      <c r="L140" s="110"/>
+      <c r="M140" s="110"/>
+      <c r="N140" s="110"/>
+      <c r="O140" s="110"/>
+      <c r="P140" s="110"/>
+      <c r="Q140" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="R140" s="194"/>
-      <c r="S140" s="194"/>
-      <c r="T140" s="194"/>
-      <c r="U140" s="194"/>
-      <c r="V140" s="194"/>
-      <c r="W140" s="194"/>
-      <c r="X140" s="194"/>
-      <c r="Y140" s="194"/>
-      <c r="Z140" s="194"/>
-      <c r="AA140" s="162"/>
-      <c r="AB140" s="195"/>
-    </row>
-    <row r="141" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A141" s="201">
+      <c r="R140" s="110"/>
+      <c r="S140" s="110"/>
+      <c r="T140" s="110"/>
+      <c r="U140" s="110"/>
+      <c r="V140" s="110"/>
+      <c r="W140" s="110"/>
+      <c r="X140" s="110"/>
+      <c r="Y140" s="110"/>
+      <c r="Z140" s="110"/>
+      <c r="AA140" s="93"/>
+      <c r="AB140" s="111"/>
+    </row>
+    <row r="141" spans="1:28" ht="16" thickBot="1">
+      <c r="A141" s="164">
         <v>13</v>
       </c>
-      <c r="B141" s="131"/>
-      <c r="C141" s="22">
+      <c r="B141" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="178"/>
-      <c r="E141" s="14"/>
+      <c r="C141" s="19">
+        <v>11</v>
+      </c>
+      <c r="D141" s="102"/>
+      <c r="E141" s="12"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
@@ -7846,7 +7823,7 @@
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
       <c r="O141" s="7"/>
-      <c r="P141" s="196" t="s">
+      <c r="P141" s="112" t="s">
         <v>78</v>
       </c>
       <c r="Q141" s="7"/>
@@ -7859,620 +7836,608 @@
       <c r="X141" s="7"/>
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
-      <c r="AA141" s="143"/>
-      <c r="AB141" s="102"/>
-    </row>
-    <row r="142" spans="1:28" s="210" customFormat="1" ht="15.75">
-      <c r="A142" s="203"/>
-      <c r="B142" s="204"/>
-      <c r="C142" s="205"/>
-      <c r="D142" s="205"/>
-      <c r="E142" s="211"/>
-      <c r="F142" s="206"/>
-      <c r="G142" s="206"/>
-      <c r="H142" s="206"/>
-      <c r="I142" s="206"/>
-      <c r="J142" s="206"/>
-      <c r="K142" s="206"/>
-      <c r="L142" s="206"/>
-      <c r="M142" s="206"/>
-      <c r="N142" s="206"/>
-      <c r="O142" s="206"/>
-      <c r="P142" s="207"/>
-      <c r="Q142" s="206"/>
-      <c r="R142" s="206"/>
-      <c r="S142" s="206"/>
-      <c r="T142" s="206"/>
-      <c r="U142" s="206"/>
-      <c r="V142" s="206"/>
-      <c r="W142" s="206"/>
-      <c r="X142" s="206"/>
-      <c r="Y142" s="206"/>
-      <c r="Z142" s="208"/>
-      <c r="AA142" s="206"/>
-      <c r="AB142" s="209"/>
-    </row>
-    <row r="143" spans="1:28" s="210" customFormat="1" ht="15.75">
-      <c r="A143" s="203"/>
-      <c r="B143" s="204"/>
-      <c r="C143" s="205"/>
-      <c r="D143" s="205"/>
-      <c r="E143" s="206"/>
-      <c r="F143" s="206"/>
-      <c r="G143" s="206"/>
-      <c r="H143" s="206"/>
-      <c r="I143" s="206"/>
-      <c r="J143" s="206"/>
-      <c r="K143" s="206"/>
-      <c r="L143" s="206"/>
-      <c r="M143" s="206"/>
-      <c r="N143" s="206"/>
-      <c r="O143" s="206"/>
-      <c r="P143" s="207"/>
-      <c r="Q143" s="206"/>
-      <c r="R143" s="206"/>
-      <c r="S143" s="206"/>
-      <c r="T143" s="206"/>
-      <c r="U143" s="206"/>
-      <c r="V143" s="206"/>
-      <c r="W143" s="206"/>
-      <c r="X143" s="206"/>
-      <c r="Y143" s="206"/>
-      <c r="Z143" s="208"/>
-      <c r="AA143" s="206"/>
-      <c r="AB143" s="209"/>
+      <c r="AA141" s="84"/>
+      <c r="AB141" s="60"/>
+    </row>
+    <row r="142" spans="1:28" s="126" customFormat="1" ht="15">
+      <c r="A142" s="119"/>
+      <c r="B142" s="120"/>
+      <c r="C142" s="121"/>
+      <c r="D142" s="121"/>
+      <c r="E142" s="127"/>
+      <c r="F142" s="122"/>
+      <c r="G142" s="122"/>
+      <c r="H142" s="122"/>
+      <c r="I142" s="122"/>
+      <c r="J142" s="122"/>
+      <c r="K142" s="122"/>
+      <c r="L142" s="122"/>
+      <c r="M142" s="122"/>
+      <c r="N142" s="122"/>
+      <c r="O142" s="122"/>
+      <c r="P142" s="123"/>
+      <c r="Q142" s="122"/>
+      <c r="R142" s="122"/>
+      <c r="S142" s="122"/>
+      <c r="T142" s="122"/>
+      <c r="U142" s="122"/>
+      <c r="V142" s="122"/>
+      <c r="W142" s="122"/>
+      <c r="X142" s="122"/>
+      <c r="Y142" s="122"/>
+      <c r="Z142" s="124"/>
+      <c r="AA142" s="122"/>
+      <c r="AB142" s="125"/>
+    </row>
+    <row r="143" spans="1:28" s="126" customFormat="1" ht="15">
+      <c r="A143" s="119"/>
+      <c r="B143" s="120"/>
+      <c r="C143" s="121"/>
+      <c r="D143" s="121"/>
+      <c r="E143" s="122"/>
+      <c r="F143" s="122"/>
+      <c r="G143" s="122"/>
+      <c r="H143" s="122"/>
+      <c r="I143" s="122"/>
+      <c r="J143" s="122"/>
+      <c r="K143" s="122"/>
+      <c r="L143" s="122"/>
+      <c r="M143" s="122"/>
+      <c r="N143" s="122"/>
+      <c r="O143" s="122"/>
+      <c r="P143" s="123"/>
+      <c r="Q143" s="122"/>
+      <c r="R143" s="122"/>
+      <c r="S143" s="122"/>
+      <c r="T143" s="122"/>
+      <c r="U143" s="122"/>
+      <c r="V143" s="122"/>
+      <c r="W143" s="122"/>
+      <c r="X143" s="122"/>
+      <c r="Y143" s="122"/>
+      <c r="Z143" s="124"/>
+      <c r="AA143" s="122"/>
+      <c r="AB143" s="125"/>
     </row>
     <row r="144" spans="1:28">
       <c r="D144" s="3"/>
-      <c r="E144" s="202"/>
+      <c r="E144" s="118"/>
     </row>
     <row r="145" spans="4:5">
       <c r="D145" s="3"/>
-      <c r="E145" s="202"/>
+      <c r="E145" s="118"/>
     </row>
     <row r="146" spans="4:5">
       <c r="D146" s="3"/>
-      <c r="E146" s="202"/>
+      <c r="E146" s="118"/>
     </row>
     <row r="147" spans="4:5">
       <c r="D147" s="3"/>
-      <c r="E147" s="202"/>
+      <c r="E147" s="118"/>
     </row>
     <row r="148" spans="4:5">
       <c r="D148" s="3"/>
-      <c r="E148" s="202"/>
+      <c r="E148" s="118"/>
     </row>
     <row r="149" spans="4:5">
       <c r="D149" s="3"/>
-      <c r="E149" s="202"/>
+      <c r="E149" s="118"/>
     </row>
     <row r="150" spans="4:5">
       <c r="D150" s="3"/>
-      <c r="E150" s="202"/>
+      <c r="E150" s="118"/>
     </row>
     <row r="151" spans="4:5">
       <c r="D151" s="3"/>
-      <c r="E151" s="202"/>
+      <c r="E151" s="118"/>
     </row>
     <row r="152" spans="4:5">
       <c r="D152" s="3"/>
-      <c r="E152" s="202"/>
+      <c r="E152" s="118"/>
     </row>
     <row r="153" spans="4:5">
       <c r="D153" s="3"/>
-      <c r="E153" s="202"/>
+      <c r="E153" s="118"/>
     </row>
     <row r="154" spans="4:5">
       <c r="D154" s="3"/>
-      <c r="E154" s="202"/>
+      <c r="E154" s="118"/>
     </row>
     <row r="155" spans="4:5">
       <c r="D155" s="3"/>
-      <c r="E155" s="202"/>
+      <c r="E155" s="118"/>
     </row>
     <row r="156" spans="4:5">
       <c r="D156" s="3"/>
-      <c r="E156" s="202"/>
+      <c r="E156" s="118"/>
     </row>
     <row r="157" spans="4:5">
       <c r="D157" s="3"/>
-      <c r="E157" s="202"/>
+      <c r="E157" s="118"/>
     </row>
     <row r="158" spans="4:5">
       <c r="D158" s="3"/>
-      <c r="E158" s="202"/>
+      <c r="E158" s="118"/>
     </row>
     <row r="159" spans="4:5">
       <c r="D159" s="3"/>
-      <c r="E159" s="202"/>
+      <c r="E159" s="118"/>
     </row>
     <row r="160" spans="4:5">
       <c r="D160" s="3"/>
-      <c r="E160" s="202"/>
+      <c r="E160" s="118"/>
     </row>
     <row r="161" spans="4:5">
       <c r="D161" s="3"/>
-      <c r="E161" s="202"/>
+      <c r="E161" s="118"/>
     </row>
     <row r="162" spans="4:5">
       <c r="D162" s="3"/>
-      <c r="E162" s="202"/>
+      <c r="E162" s="118"/>
     </row>
     <row r="163" spans="4:5">
       <c r="D163" s="3"/>
-      <c r="E163" s="202"/>
+      <c r="E163" s="118"/>
     </row>
     <row r="164" spans="4:5">
       <c r="D164" s="3"/>
-      <c r="E164" s="202"/>
+      <c r="E164" s="118"/>
     </row>
     <row r="165" spans="4:5">
       <c r="D165" s="3"/>
-      <c r="E165" s="202"/>
+      <c r="E165" s="118"/>
     </row>
     <row r="166" spans="4:5">
       <c r="D166" s="3"/>
-      <c r="E166" s="202"/>
+      <c r="E166" s="118"/>
     </row>
     <row r="167" spans="4:5">
       <c r="D167" s="3"/>
-      <c r="E167" s="202"/>
+      <c r="E167" s="118"/>
     </row>
     <row r="168" spans="4:5">
       <c r="D168" s="3"/>
-      <c r="E168" s="202"/>
+      <c r="E168" s="118"/>
     </row>
     <row r="169" spans="4:5">
       <c r="D169" s="3"/>
-      <c r="E169" s="202"/>
+      <c r="E169" s="118"/>
     </row>
     <row r="170" spans="4:5">
       <c r="D170" s="3"/>
-      <c r="E170" s="202"/>
+      <c r="E170" s="118"/>
     </row>
     <row r="171" spans="4:5">
       <c r="D171" s="3"/>
-      <c r="E171" s="202"/>
+      <c r="E171" s="118"/>
     </row>
     <row r="172" spans="4:5">
       <c r="D172" s="3"/>
-      <c r="E172" s="202"/>
+      <c r="E172" s="118"/>
     </row>
     <row r="173" spans="4:5">
       <c r="D173" s="3"/>
-      <c r="E173" s="202"/>
+      <c r="E173" s="118"/>
     </row>
     <row r="174" spans="4:5">
       <c r="D174" s="3"/>
-      <c r="E174" s="202"/>
+      <c r="E174" s="118"/>
     </row>
     <row r="175" spans="4:5">
       <c r="D175" s="3"/>
-      <c r="E175" s="202"/>
+      <c r="E175" s="118"/>
     </row>
     <row r="176" spans="4:5">
       <c r="D176" s="3"/>
-      <c r="E176" s="202"/>
+      <c r="E176" s="118"/>
     </row>
     <row r="177" spans="4:5">
       <c r="D177" s="3"/>
-      <c r="E177" s="202"/>
+      <c r="E177" s="118"/>
     </row>
     <row r="178" spans="4:5">
       <c r="D178" s="3"/>
-      <c r="E178" s="202"/>
+      <c r="E178" s="118"/>
     </row>
     <row r="179" spans="4:5">
       <c r="D179" s="3"/>
-      <c r="E179" s="202"/>
+      <c r="E179" s="118"/>
     </row>
     <row r="180" spans="4:5">
-      <c r="D180" s="202"/>
-      <c r="E180" s="202"/>
+      <c r="D180" s="118"/>
+      <c r="E180" s="118"/>
     </row>
     <row r="181" spans="4:5">
-      <c r="D181" s="202"/>
-      <c r="E181" s="202"/>
+      <c r="D181" s="118"/>
+      <c r="E181" s="118"/>
     </row>
     <row r="182" spans="4:5">
-      <c r="D182" s="202"/>
-      <c r="E182" s="202"/>
+      <c r="D182" s="118"/>
+      <c r="E182" s="118"/>
     </row>
     <row r="183" spans="4:5">
-      <c r="D183" s="202"/>
-      <c r="E183" s="202"/>
+      <c r="D183" s="118"/>
+      <c r="E183" s="118"/>
     </row>
     <row r="184" spans="4:5">
-      <c r="D184" s="202"/>
-      <c r="E184" s="202"/>
+      <c r="D184" s="118"/>
+      <c r="E184" s="118"/>
     </row>
     <row r="185" spans="4:5">
-      <c r="D185" s="202"/>
-      <c r="E185" s="202"/>
+      <c r="D185" s="118"/>
+      <c r="E185" s="118"/>
     </row>
     <row r="186" spans="4:5">
-      <c r="D186" s="202"/>
-      <c r="E186" s="202"/>
+      <c r="D186" s="118"/>
+      <c r="E186" s="118"/>
     </row>
     <row r="187" spans="4:5">
-      <c r="D187" s="202"/>
-      <c r="E187" s="202"/>
+      <c r="D187" s="118"/>
+      <c r="E187" s="118"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="202"/>
-      <c r="E188" s="202"/>
+      <c r="D188" s="118"/>
+      <c r="E188" s="118"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="202"/>
-      <c r="E189" s="202"/>
+      <c r="D189" s="118"/>
+      <c r="E189" s="118"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="202"/>
-      <c r="E190" s="202"/>
+      <c r="D190" s="118"/>
+      <c r="E190" s="118"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="202"/>
-      <c r="E191" s="202"/>
+      <c r="D191" s="118"/>
+      <c r="E191" s="118"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="202"/>
-      <c r="E192" s="202"/>
+      <c r="D192" s="118"/>
+      <c r="E192" s="118"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="202"/>
-      <c r="E193" s="202"/>
+      <c r="D193" s="118"/>
+      <c r="E193" s="118"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="202"/>
-      <c r="E194" s="202"/>
+      <c r="D194" s="118"/>
+      <c r="E194" s="118"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="202"/>
-      <c r="E195" s="202"/>
+      <c r="D195" s="118"/>
+      <c r="E195" s="118"/>
     </row>
     <row r="196" spans="4:5">
-      <c r="D196" s="202"/>
-      <c r="E196" s="202"/>
+      <c r="D196" s="118"/>
+      <c r="E196" s="118"/>
     </row>
     <row r="197" spans="4:5">
-      <c r="D197" s="202"/>
-      <c r="E197" s="202"/>
+      <c r="D197" s="118"/>
+      <c r="E197" s="118"/>
     </row>
     <row r="198" spans="4:5">
-      <c r="D198" s="202"/>
-      <c r="E198" s="202"/>
+      <c r="D198" s="118"/>
+      <c r="E198" s="118"/>
     </row>
     <row r="199" spans="4:5">
-      <c r="D199" s="202"/>
-      <c r="E199" s="202"/>
+      <c r="D199" s="118"/>
+      <c r="E199" s="118"/>
     </row>
     <row r="200" spans="4:5">
-      <c r="D200" s="202"/>
-      <c r="E200" s="202"/>
+      <c r="D200" s="118"/>
+      <c r="E200" s="118"/>
     </row>
     <row r="201" spans="4:5">
-      <c r="D201" s="202"/>
-      <c r="E201" s="202"/>
+      <c r="D201" s="118"/>
+      <c r="E201" s="118"/>
     </row>
     <row r="202" spans="4:5">
-      <c r="D202" s="202"/>
-      <c r="E202" s="202"/>
+      <c r="D202" s="118"/>
+      <c r="E202" s="118"/>
     </row>
     <row r="203" spans="4:5">
-      <c r="D203" s="202"/>
-      <c r="E203" s="202"/>
+      <c r="D203" s="118"/>
+      <c r="E203" s="118"/>
     </row>
     <row r="204" spans="4:5">
-      <c r="D204" s="202"/>
-      <c r="E204" s="202"/>
+      <c r="D204" s="118"/>
+      <c r="E204" s="118"/>
     </row>
     <row r="205" spans="4:5">
-      <c r="D205" s="202"/>
-      <c r="E205" s="202"/>
+      <c r="D205" s="118"/>
+      <c r="E205" s="118"/>
     </row>
     <row r="206" spans="4:5">
-      <c r="D206" s="202"/>
-      <c r="E206" s="202"/>
+      <c r="D206" s="118"/>
+      <c r="E206" s="118"/>
     </row>
     <row r="207" spans="4:5">
-      <c r="D207" s="202"/>
-      <c r="E207" s="202"/>
+      <c r="D207" s="118"/>
+      <c r="E207" s="118"/>
     </row>
     <row r="208" spans="4:5">
-      <c r="D208" s="202"/>
-      <c r="E208" s="202"/>
+      <c r="D208" s="118"/>
+      <c r="E208" s="118"/>
     </row>
     <row r="209" spans="4:5">
-      <c r="D209" s="202"/>
-      <c r="E209" s="202"/>
+      <c r="D209" s="118"/>
+      <c r="E209" s="118"/>
     </row>
     <row r="210" spans="4:5">
-      <c r="D210" s="202"/>
-      <c r="E210" s="202"/>
+      <c r="D210" s="118"/>
+      <c r="E210" s="118"/>
     </row>
     <row r="211" spans="4:5">
-      <c r="D211" s="202"/>
-      <c r="E211" s="202"/>
+      <c r="D211" s="118"/>
+      <c r="E211" s="118"/>
     </row>
     <row r="212" spans="4:5">
-      <c r="D212" s="202"/>
-      <c r="E212" s="202"/>
+      <c r="D212" s="118"/>
+      <c r="E212" s="118"/>
     </row>
     <row r="213" spans="4:5">
-      <c r="D213" s="202"/>
-      <c r="E213" s="202"/>
+      <c r="D213" s="118"/>
+      <c r="E213" s="118"/>
     </row>
     <row r="214" spans="4:5">
-      <c r="D214" s="202"/>
-      <c r="E214" s="202"/>
+      <c r="D214" s="118"/>
+      <c r="E214" s="118"/>
     </row>
     <row r="215" spans="4:5">
-      <c r="D215" s="202"/>
-      <c r="E215" s="202"/>
+      <c r="D215" s="118"/>
+      <c r="E215" s="118"/>
     </row>
     <row r="216" spans="4:5">
-      <c r="D216" s="202"/>
-      <c r="E216" s="202"/>
+      <c r="D216" s="118"/>
+      <c r="E216" s="118"/>
     </row>
     <row r="217" spans="4:5">
-      <c r="D217" s="202"/>
-      <c r="E217" s="202"/>
+      <c r="D217" s="118"/>
+      <c r="E217" s="118"/>
     </row>
     <row r="218" spans="4:5">
-      <c r="D218" s="202"/>
-      <c r="E218" s="202"/>
+      <c r="D218" s="118"/>
+      <c r="E218" s="118"/>
     </row>
     <row r="219" spans="4:5">
-      <c r="D219" s="202"/>
-      <c r="E219" s="202"/>
+      <c r="D219" s="118"/>
+      <c r="E219" s="118"/>
     </row>
     <row r="220" spans="4:5">
-      <c r="D220" s="202"/>
-      <c r="E220" s="202"/>
+      <c r="D220" s="118"/>
+      <c r="E220" s="118"/>
     </row>
     <row r="221" spans="4:5">
-      <c r="D221" s="202"/>
-      <c r="E221" s="202"/>
+      <c r="D221" s="118"/>
+      <c r="E221" s="118"/>
     </row>
     <row r="222" spans="4:5">
-      <c r="D222" s="202"/>
-      <c r="E222" s="202"/>
+      <c r="D222" s="118"/>
+      <c r="E222" s="118"/>
     </row>
     <row r="223" spans="4:5">
-      <c r="D223" s="202"/>
-      <c r="E223" s="202"/>
+      <c r="D223" s="118"/>
+      <c r="E223" s="118"/>
     </row>
     <row r="224" spans="4:5">
-      <c r="D224" s="202"/>
-      <c r="E224" s="202"/>
+      <c r="D224" s="118"/>
+      <c r="E224" s="118"/>
     </row>
     <row r="225" spans="4:5">
-      <c r="D225" s="202"/>
-      <c r="E225" s="202"/>
+      <c r="D225" s="118"/>
+      <c r="E225" s="118"/>
     </row>
     <row r="226" spans="4:5">
-      <c r="D226" s="202"/>
-      <c r="E226" s="202"/>
+      <c r="D226" s="118"/>
+      <c r="E226" s="118"/>
     </row>
     <row r="227" spans="4:5">
-      <c r="D227" s="202"/>
-      <c r="E227" s="202"/>
+      <c r="D227" s="118"/>
+      <c r="E227" s="118"/>
     </row>
     <row r="228" spans="4:5">
-      <c r="D228" s="202"/>
-      <c r="E228" s="202"/>
+      <c r="D228" s="118"/>
+      <c r="E228" s="118"/>
     </row>
     <row r="229" spans="4:5">
-      <c r="D229" s="202"/>
-      <c r="E229" s="202"/>
+      <c r="D229" s="118"/>
+      <c r="E229" s="118"/>
     </row>
     <row r="230" spans="4:5">
-      <c r="D230" s="202"/>
-      <c r="E230" s="202"/>
+      <c r="D230" s="118"/>
+      <c r="E230" s="118"/>
     </row>
     <row r="231" spans="4:5">
-      <c r="D231" s="202"/>
-      <c r="E231" s="202"/>
+      <c r="D231" s="118"/>
+      <c r="E231" s="118"/>
     </row>
     <row r="232" spans="4:5">
-      <c r="D232" s="202"/>
-      <c r="E232" s="202"/>
+      <c r="D232" s="118"/>
+      <c r="E232" s="118"/>
     </row>
     <row r="233" spans="4:5">
-      <c r="D233" s="202"/>
-      <c r="E233" s="202"/>
+      <c r="D233" s="118"/>
+      <c r="E233" s="118"/>
     </row>
     <row r="234" spans="4:5">
-      <c r="D234" s="202"/>
-      <c r="E234" s="202"/>
+      <c r="D234" s="118"/>
+      <c r="E234" s="118"/>
     </row>
     <row r="235" spans="4:5">
-      <c r="D235" s="202"/>
-      <c r="E235" s="202"/>
+      <c r="D235" s="118"/>
+      <c r="E235" s="118"/>
     </row>
     <row r="236" spans="4:5">
-      <c r="D236" s="202"/>
-      <c r="E236" s="202"/>
+      <c r="D236" s="118"/>
+      <c r="E236" s="118"/>
     </row>
     <row r="237" spans="4:5">
-      <c r="D237" s="202"/>
-      <c r="E237" s="202"/>
+      <c r="D237" s="118"/>
+      <c r="E237" s="118"/>
     </row>
     <row r="238" spans="4:5">
-      <c r="D238" s="202"/>
-      <c r="E238" s="202"/>
+      <c r="D238" s="118"/>
+      <c r="E238" s="118"/>
     </row>
     <row r="239" spans="4:5">
-      <c r="D239" s="202"/>
-      <c r="E239" s="202"/>
+      <c r="D239" s="118"/>
+      <c r="E239" s="118"/>
     </row>
     <row r="240" spans="4:5">
-      <c r="D240" s="202"/>
-      <c r="E240" s="202"/>
+      <c r="D240" s="118"/>
+      <c r="E240" s="118"/>
     </row>
     <row r="241" spans="4:5">
-      <c r="D241" s="202"/>
-      <c r="E241" s="202"/>
+      <c r="D241" s="118"/>
+      <c r="E241" s="118"/>
     </row>
     <row r="242" spans="4:5">
-      <c r="D242" s="202"/>
-      <c r="E242" s="202"/>
+      <c r="D242" s="118"/>
+      <c r="E242" s="118"/>
     </row>
     <row r="243" spans="4:5">
-      <c r="D243" s="202"/>
-      <c r="E243" s="202"/>
+      <c r="D243" s="118"/>
+      <c r="E243" s="118"/>
     </row>
     <row r="244" spans="4:5">
-      <c r="D244" s="202"/>
-      <c r="E244" s="202"/>
+      <c r="D244" s="118"/>
+      <c r="E244" s="118"/>
     </row>
     <row r="245" spans="4:5">
-      <c r="D245" s="202"/>
-      <c r="E245" s="202"/>
+      <c r="D245" s="118"/>
+      <c r="E245" s="118"/>
     </row>
     <row r="246" spans="4:5">
-      <c r="D246" s="202"/>
-      <c r="E246" s="202"/>
+      <c r="D246" s="118"/>
+      <c r="E246" s="118"/>
     </row>
     <row r="247" spans="4:5">
-      <c r="D247" s="202"/>
-      <c r="E247" s="202"/>
+      <c r="D247" s="118"/>
+      <c r="E247" s="118"/>
     </row>
     <row r="248" spans="4:5">
-      <c r="D248" s="202"/>
-      <c r="E248" s="202"/>
+      <c r="D248" s="118"/>
+      <c r="E248" s="118"/>
     </row>
     <row r="249" spans="4:5">
-      <c r="D249" s="202"/>
-      <c r="E249" s="202"/>
+      <c r="D249" s="118"/>
+      <c r="E249" s="118"/>
     </row>
     <row r="250" spans="4:5">
-      <c r="D250" s="202"/>
-      <c r="E250" s="202"/>
+      <c r="D250" s="118"/>
+      <c r="E250" s="118"/>
     </row>
     <row r="251" spans="4:5">
-      <c r="D251" s="202"/>
-      <c r="E251" s="202"/>
+      <c r="D251" s="118"/>
+      <c r="E251" s="118"/>
     </row>
     <row r="252" spans="4:5">
-      <c r="D252" s="202"/>
-      <c r="E252" s="202"/>
+      <c r="D252" s="118"/>
+      <c r="E252" s="118"/>
     </row>
     <row r="253" spans="4:5">
-      <c r="D253" s="202"/>
-      <c r="E253" s="202"/>
+      <c r="D253" s="118"/>
+      <c r="E253" s="118"/>
     </row>
     <row r="254" spans="4:5">
-      <c r="D254" s="202"/>
-      <c r="E254" s="202"/>
+      <c r="D254" s="118"/>
+      <c r="E254" s="118"/>
     </row>
     <row r="255" spans="4:5">
-      <c r="D255" s="202"/>
-      <c r="E255" s="202"/>
+      <c r="D255" s="118"/>
+      <c r="E255" s="118"/>
     </row>
     <row r="256" spans="4:5">
-      <c r="D256" s="202"/>
-      <c r="E256" s="202"/>
+      <c r="D256" s="118"/>
+      <c r="E256" s="118"/>
     </row>
     <row r="257" spans="4:5">
-      <c r="D257" s="202"/>
-      <c r="E257" s="202"/>
+      <c r="D257" s="118"/>
+      <c r="E257" s="118"/>
     </row>
     <row r="258" spans="4:5">
-      <c r="D258" s="202"/>
-      <c r="E258" s="202"/>
+      <c r="D258" s="118"/>
+      <c r="E258" s="118"/>
     </row>
     <row r="259" spans="4:5">
-      <c r="D259" s="202"/>
-      <c r="E259" s="202"/>
+      <c r="D259" s="118"/>
+      <c r="E259" s="118"/>
     </row>
     <row r="260" spans="4:5">
-      <c r="D260" s="202"/>
-      <c r="E260" s="202"/>
+      <c r="D260" s="118"/>
+      <c r="E260" s="118"/>
     </row>
     <row r="261" spans="4:5">
-      <c r="D261" s="202"/>
-      <c r="E261" s="202"/>
+      <c r="D261" s="118"/>
+      <c r="E261" s="118"/>
     </row>
     <row r="262" spans="4:5">
-      <c r="D262" s="202"/>
-      <c r="E262" s="202"/>
+      <c r="D262" s="118"/>
+      <c r="E262" s="118"/>
     </row>
     <row r="263" spans="4:5">
-      <c r="D263" s="202"/>
-      <c r="E263" s="202"/>
+      <c r="D263" s="118"/>
+      <c r="E263" s="118"/>
     </row>
     <row r="264" spans="4:5">
-      <c r="D264" s="202"/>
-      <c r="E264" s="202"/>
+      <c r="D264" s="118"/>
+      <c r="E264" s="118"/>
     </row>
     <row r="265" spans="4:5">
-      <c r="D265" s="202"/>
-      <c r="E265" s="202"/>
+      <c r="D265" s="118"/>
+      <c r="E265" s="118"/>
     </row>
     <row r="266" spans="4:5">
-      <c r="D266" s="202"/>
-      <c r="E266" s="202"/>
+      <c r="D266" s="118"/>
+      <c r="E266" s="118"/>
     </row>
     <row r="267" spans="4:5">
-      <c r="D267" s="202"/>
-      <c r="E267" s="202"/>
+      <c r="D267" s="118"/>
+      <c r="E267" s="118"/>
     </row>
     <row r="268" spans="4:5">
-      <c r="D268" s="202"/>
-      <c r="E268" s="202"/>
+      <c r="D268" s="118"/>
+      <c r="E268" s="118"/>
     </row>
     <row r="269" spans="4:5">
-      <c r="D269" s="202"/>
-      <c r="E269" s="202"/>
+      <c r="D269" s="118"/>
+      <c r="E269" s="118"/>
     </row>
     <row r="270" spans="4:5">
-      <c r="D270" s="202"/>
-      <c r="E270" s="202"/>
+      <c r="D270" s="118"/>
+      <c r="E270" s="118"/>
     </row>
     <row r="271" spans="4:5">
-      <c r="D271" s="202"/>
-      <c r="E271" s="202"/>
+      <c r="D271" s="118"/>
+      <c r="E271" s="118"/>
     </row>
     <row r="272" spans="4:5">
-      <c r="D272" s="202"/>
-      <c r="E272" s="202"/>
+      <c r="D272" s="118"/>
+      <c r="E272" s="118"/>
     </row>
     <row r="273" spans="4:5">
-      <c r="D273" s="202"/>
-      <c r="E273" s="202"/>
+      <c r="D273" s="118"/>
+      <c r="E273" s="118"/>
     </row>
     <row r="274" spans="4:5">
-      <c r="D274" s="202"/>
-      <c r="E274" s="202"/>
+      <c r="D274" s="118"/>
+      <c r="E274" s="118"/>
     </row>
     <row r="275" spans="4:5">
-      <c r="D275" s="202"/>
-      <c r="E275" s="202"/>
+      <c r="D275" s="118"/>
+      <c r="E275" s="118"/>
     </row>
     <row r="276" spans="4:5">
-      <c r="D276" s="202"/>
-      <c r="E276" s="202"/>
+      <c r="D276" s="118"/>
+      <c r="E276" s="118"/>
     </row>
     <row r="277" spans="4:5">
-      <c r="D277" s="202"/>
-      <c r="E277" s="202"/>
+      <c r="D277" s="118"/>
+      <c r="E277" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B98:B113"/>
-    <mergeCell ref="B114:B129"/>
-    <mergeCell ref="B130:B141"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="B34:B49"/>
-    <mergeCell ref="B50:B65"/>
-    <mergeCell ref="B66:B81"/>
-    <mergeCell ref="B82:B97"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8482,24 +8447,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.5" thickBot="1">
+    <row r="1" spans="2:10" ht="16" thickBot="1">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -8507,483 +8472,483 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="16.5" thickBot="1">
+    <row r="2" spans="2:10" ht="16" thickBot="1">
       <c r="C2" s="1"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1">
-      <c r="C3" s="118" t="s">
+    <row r="3" spans="2:10" ht="16" thickBot="1">
+      <c r="C3" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="122" t="s">
+      <c r="I3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="128" t="s">
+      <c r="J3" s="75" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="119">
+      <c r="C4" s="66">
         <v>1</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="31">
         <v>1</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="41">
         <v>0</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="33">
         <v>0</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="32">
         <v>0</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="34" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="136"/>
-      <c r="C5" s="120">
+      <c r="B5" s="129"/>
+      <c r="C5" s="67">
         <v>2</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="38">
         <v>0</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="25">
         <v>1</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="42">
         <v>0</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="20">
         <v>0</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="29">
         <v>1</v>
       </c>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="136"/>
-      <c r="C6" s="120">
+      <c r="B6" s="129"/>
+      <c r="C6" s="67">
         <v>3</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="38">
         <v>0</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="25">
         <v>1</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="42">
         <v>0</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="20">
         <v>1</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="29">
         <v>0</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="136"/>
-      <c r="C7" s="120">
+      <c r="B7" s="129"/>
+      <c r="C7" s="67">
         <v>4</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="38">
         <v>0</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="25">
         <v>1</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="42">
         <v>0</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="20">
         <v>1</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="29">
         <v>1</v>
       </c>
-      <c r="I7" s="124" t="s">
+      <c r="I7" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="136"/>
-      <c r="C8" s="120">
+      <c r="B8" s="129"/>
+      <c r="C8" s="67">
         <v>5</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="38">
         <v>0</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="25">
         <v>1</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="42">
         <v>1</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="20">
         <v>0</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="29">
         <v>0</v>
       </c>
-      <c r="I8" s="124" t="s">
+      <c r="I8" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="136"/>
-      <c r="C9" s="120">
+      <c r="B9" s="129"/>
+      <c r="C9" s="67">
         <v>6</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="38">
         <v>0</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="25">
         <v>1</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="42">
         <v>1</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="20">
         <v>0</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="29">
         <v>1</v>
       </c>
-      <c r="I9" s="124" t="s">
+      <c r="I9" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="136"/>
-      <c r="C10" s="120">
+      <c r="B10" s="129"/>
+      <c r="C10" s="67">
         <v>7</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="38">
         <v>0</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="42">
         <v>1</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="29">
         <v>0</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="I10" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B11" s="137"/>
-      <c r="C11" s="121">
+    <row r="11" spans="2:10" ht="16" thickBot="1">
+      <c r="B11" s="130"/>
+      <c r="C11" s="68">
         <v>8</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="39">
         <v>0</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="26">
         <v>1</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="43">
         <v>1</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="27">
         <v>1</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="30">
         <v>1</v>
       </c>
-      <c r="I11" s="125" t="s">
+      <c r="I11" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="22" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="66">
         <v>9</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="31">
         <v>0</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="41">
         <v>0</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="33">
         <v>0</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="32">
         <v>0</v>
       </c>
-      <c r="I12" s="126" t="s">
+      <c r="I12" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="136"/>
-      <c r="C13" s="120">
+      <c r="B13" s="129"/>
+      <c r="C13" s="67">
         <v>10</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="38">
         <v>1</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="25">
         <v>0</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="42">
         <v>0</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="20">
         <v>0</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="29">
         <v>1</v>
       </c>
-      <c r="I13" s="124" t="s">
+      <c r="I13" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="136"/>
-      <c r="C14" s="120">
+      <c r="B14" s="129"/>
+      <c r="C14" s="67">
         <v>11</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="38">
         <v>1</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="25">
         <v>0</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="42">
         <v>0</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="20">
         <v>1</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="29">
         <v>0</v>
       </c>
-      <c r="I14" s="127" t="s">
+      <c r="I14" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="136"/>
-      <c r="C15" s="120">
+      <c r="B15" s="129"/>
+      <c r="C15" s="67">
         <v>12</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="38">
         <v>1</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="25">
         <v>0</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="42">
         <v>0</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="20">
         <v>1</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="29">
         <v>1</v>
       </c>
-      <c r="I15" s="124" t="s">
+      <c r="I15" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="136"/>
-      <c r="C16" s="120">
+      <c r="B16" s="129"/>
+      <c r="C16" s="67">
         <v>13</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="38">
         <v>1</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="25">
         <v>0</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="42">
         <v>1</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="20">
         <v>0</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="29">
         <v>0</v>
       </c>
-      <c r="I16" s="124" t="s">
+      <c r="I16" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="136"/>
-      <c r="C17" s="120">
+      <c r="B17" s="129"/>
+      <c r="C17" s="67">
         <v>14</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="38">
         <v>1</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="25">
         <v>0</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="42">
         <v>1</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="20">
         <v>0</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="29">
         <v>1</v>
       </c>
-      <c r="I17" s="124" t="s">
+      <c r="I17" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="136"/>
-      <c r="C18" s="120">
+      <c r="B18" s="129"/>
+      <c r="C18" s="67">
         <v>15</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="38">
         <v>1</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="25">
         <v>0</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="42">
         <v>1</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="20">
         <v>1</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="29">
         <v>0</v>
       </c>
-      <c r="I18" s="124" t="s">
+      <c r="I18" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B19" s="137"/>
-      <c r="C19" s="121">
+    <row r="19" spans="2:10" ht="16" thickBot="1">
+      <c r="B19" s="130"/>
+      <c r="C19" s="68">
         <v>16</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="39">
         <v>1</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="26">
         <v>0</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="43">
         <v>1</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="27">
         <v>1</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="30">
         <v>1</v>
       </c>
-      <c r="I19" s="125" t="s">
+      <c r="I19" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="22" t="s">
         <v>108</v>
       </c>
     </row>
@@ -9010,17 +8975,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9535,14 +9500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
@@ -9906,5 +9871,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Marionette_connections.xlsx
+++ b/Marionette_connections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="400" activeTab="1"/>
+    <workbookView xWindow="2100" yWindow="21820" windowWidth="10520" windowHeight="16280" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configs" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Output to ECoD" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">PinFunctions!$A:$Z</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PinFunctions!$A:$Z</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -1149,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1428,143 +1428,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9CDE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7E4BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9CDE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7E4BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9CDE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7E4BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <sz val="12"/>
@@ -6794,23 +6666,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="660" activePane="bottomLeft"/>
-      <selection activeCell="O1" sqref="D1:O1048576"/>
-      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="660" topLeftCell="A114" activePane="bottomLeft"/>
+      <selection sqref="A1:S1048576"/>
+      <selection pane="bottomLeft" activeCell="Y127" sqref="Y127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="32"/>
-    <col min="2" max="2" width="8.83203125" style="33"/>
-    <col min="3" max="3" width="8.83203125" style="32"/>
-    <col min="4" max="4" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5" max="15" width="0" style="32" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="32"/>
-    <col min="17" max="22" width="0" style="32" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.83203125" style="32"/>
+    <col min="2" max="2" width="8.83203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="34" customWidth="1"/>
+    <col min="5" max="22" width="8.83203125" style="32" customWidth="1"/>
+    <col min="23" max="24" width="8.83203125" style="34" customWidth="1"/>
+    <col min="25" max="25" width="15.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="26" max="1025" width="8.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -8564,7 +8435,7 @@
       <c r="W17" s="73"/>
       <c r="X17" s="74"/>
       <c r="Y17" s="76" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:26" s="58" customFormat="1">
@@ -8698,20 +8569,18 @@
     </row>
     <row r="21" spans="1:26" s="58" customFormat="1">
       <c r="A21" s="59">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B21" s="60" t="s">
         <v>134</v>
       </c>
       <c r="C21" s="14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D21" s="61"/>
       <c r="E21" s="62"/>
       <c r="F21" s="62"/>
-      <c r="G21" s="62" t="s">
-        <v>145</v>
-      </c>
+      <c r="G21" s="62"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
       <c r="J21" s="62"/>
@@ -8720,14 +8589,12 @@
       <c r="M21" s="62"/>
       <c r="N21" s="62"/>
       <c r="O21" s="62" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="P21" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q21" s="62" t="s">
-        <v>78</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
       <c r="S21" s="62"/>
       <c r="T21" s="62"/>
@@ -8735,8 +8602,8 @@
       <c r="V21" s="62"/>
       <c r="W21" s="62"/>
       <c r="X21" s="63"/>
-      <c r="Y21" s="81" t="s">
-        <v>67</v>
+      <c r="Y21" s="97" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="58" customFormat="1">
@@ -8994,20 +8861,18 @@
     </row>
     <row r="28" spans="1:26" s="58" customFormat="1">
       <c r="A28" s="59">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>134</v>
       </c>
       <c r="C28" s="14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28" s="61"/>
       <c r="E28" s="62"/>
       <c r="F28" s="62"/>
-      <c r="G28" s="62" t="s">
-        <v>143</v>
-      </c>
+      <c r="G28" s="62"/>
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
       <c r="J28" s="62"/>
@@ -9016,14 +8881,12 @@
       <c r="M28" s="62"/>
       <c r="N28" s="62"/>
       <c r="O28" s="62" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="P28" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q28" s="62" t="s">
-        <v>72</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
       <c r="S28" s="62"/>
       <c r="T28" s="62"/>
@@ -9031,8 +8894,8 @@
       <c r="V28" s="62"/>
       <c r="W28" s="62"/>
       <c r="X28" s="63"/>
-      <c r="Y28" s="81" t="s">
-        <v>77</v>
+      <c r="Y28" s="97" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="58" customFormat="1">
@@ -9122,21 +8985,23 @@
     </row>
     <row r="31" spans="1:26" s="58" customFormat="1">
       <c r="A31" s="59">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C31" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="61"/>
       <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" s="62"/>
+      <c r="F31" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62" t="s">
+        <v>138</v>
+      </c>
       <c r="I31" s="62"/>
       <c r="J31" s="62"/>
       <c r="K31" s="62"/>
@@ -9144,23 +9009,21 @@
       <c r="M31" s="62"/>
       <c r="N31" s="62"/>
       <c r="O31" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="P31" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q31" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="R31" s="62"/>
+        <v>82</v>
+      </c>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62" t="s">
+        <v>175</v>
+      </c>
       <c r="S31" s="62"/>
       <c r="T31" s="62"/>
       <c r="U31" s="62"/>
       <c r="V31" s="62"/>
       <c r="W31" s="62"/>
       <c r="X31" s="63"/>
-      <c r="Y31" s="81" t="s">
-        <v>75</v>
+      <c r="Y31" s="97" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:26" s="58" customFormat="1">
@@ -9202,10 +9065,10 @@
     </row>
     <row r="33" spans="1:25" s="58" customFormat="1">
       <c r="A33" s="70">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C33" s="31">
         <v>8</v>
@@ -9214,29 +9077,33 @@
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
+      <c r="H33" s="73" t="s">
+        <v>139</v>
+      </c>
       <c r="I33" s="73"/>
       <c r="J33" s="73"/>
       <c r="K33" s="73"/>
       <c r="L33" s="73"/>
       <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
+      <c r="N33" s="73" t="s">
+        <v>132</v>
+      </c>
       <c r="O33" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="P33" s="73" t="s">
-        <v>180</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P33" s="73"/>
       <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
+      <c r="R33" s="73" t="s">
+        <v>135</v>
+      </c>
       <c r="S33" s="73"/>
       <c r="T33" s="73"/>
       <c r="U33" s="73"/>
       <c r="V33" s="73"/>
       <c r="W33" s="73"/>
       <c r="X33" s="74"/>
-      <c r="Y33" s="81" t="s">
-        <v>71</v>
+      <c r="Y33" s="97" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="58" customFormat="1">
@@ -9395,18 +9262,20 @@
     </row>
     <row r="38" spans="1:25" s="58" customFormat="1">
       <c r="A38" s="59">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B38" s="60" t="s">
         <v>134</v>
       </c>
       <c r="C38" s="14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="62"/>
       <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
+      <c r="G38" s="62" t="s">
+        <v>143</v>
+      </c>
       <c r="H38" s="62"/>
       <c r="I38" s="62"/>
       <c r="J38" s="62"/>
@@ -9415,12 +9284,14 @@
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
       <c r="O38" s="62" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="P38" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q38" s="62"/>
+        <v>170</v>
+      </c>
+      <c r="Q38" s="62" t="s">
+        <v>72</v>
+      </c>
       <c r="R38" s="62"/>
       <c r="S38" s="62"/>
       <c r="T38" s="62"/>
@@ -9429,7 +9300,7 @@
       <c r="W38" s="62"/>
       <c r="X38" s="63"/>
       <c r="Y38" s="81" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="58" customFormat="1">
@@ -9471,18 +9342,20 @@
     </row>
     <row r="40" spans="1:25" s="58" customFormat="1">
       <c r="A40" s="59">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B40" s="60" t="s">
         <v>134</v>
       </c>
       <c r="C40" s="14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D40" s="61"/>
       <c r="E40" s="62"/>
       <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
+      <c r="G40" s="62" t="s">
+        <v>159</v>
+      </c>
       <c r="H40" s="62"/>
       <c r="I40" s="62"/>
       <c r="J40" s="62"/>
@@ -9491,12 +9364,14 @@
       <c r="M40" s="62"/>
       <c r="N40" s="62"/>
       <c r="O40" s="62" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P40" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q40" s="62"/>
+        <v>168</v>
+      </c>
+      <c r="Q40" s="62" t="s">
+        <v>74</v>
+      </c>
       <c r="R40" s="62"/>
       <c r="S40" s="62"/>
       <c r="T40" s="62"/>
@@ -9505,7 +9380,7 @@
       <c r="W40" s="62"/>
       <c r="X40" s="63"/>
       <c r="Y40" s="81" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="58" customFormat="1">
@@ -12597,7 +12472,7 @@
       <c r="W126" s="62"/>
       <c r="X126" s="63"/>
       <c r="Y126" s="68" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:25">
@@ -13648,13 +13523,13 @@
     </row>
     <row r="157" spans="1:25">
       <c r="A157" s="59">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B157" s="60" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C157" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D157" s="61"/>
       <c r="E157" s="62"/>
@@ -13668,9 +13543,11 @@
       <c r="M157" s="62"/>
       <c r="N157" s="62"/>
       <c r="O157" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="P157" s="62"/>
+        <v>71</v>
+      </c>
+      <c r="P157" s="62" t="s">
+        <v>180</v>
+      </c>
       <c r="Q157" s="62"/>
       <c r="R157" s="62"/>
       <c r="S157" s="62"/>
@@ -13680,7 +13557,7 @@
       <c r="W157" s="62"/>
       <c r="X157" s="63"/>
       <c r="Y157" s="81" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="1:25">
@@ -14043,37 +13920,31 @@
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="59">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B168" s="60" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C168" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D168" s="61"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="62"/>
-      <c r="H168" s="62" t="s">
-        <v>139</v>
-      </c>
+      <c r="H168" s="62"/>
       <c r="I168" s="62"/>
       <c r="J168" s="62"/>
       <c r="K168" s="62"/>
       <c r="L168" s="62"/>
       <c r="M168" s="62"/>
-      <c r="N168" s="62" t="s">
-        <v>132</v>
-      </c>
+      <c r="N168" s="62"/>
       <c r="O168" s="62" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P168" s="62"/>
       <c r="Q168" s="62"/>
-      <c r="R168" s="62" t="s">
-        <v>135</v>
-      </c>
+      <c r="R168" s="62"/>
       <c r="S168" s="62"/>
       <c r="T168" s="62"/>
       <c r="U168" s="62"/>
@@ -14081,28 +13952,26 @@
       <c r="W168" s="62"/>
       <c r="X168" s="63"/>
       <c r="Y168" s="81" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="59">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B169" s="60" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C169" s="14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="61"/>
       <c r="E169" s="62"/>
-      <c r="F169" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G169" s="62"/>
-      <c r="H169" s="62" t="s">
-        <v>138</v>
-      </c>
+      <c r="F169" s="62"/>
+      <c r="G169" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="H169" s="62"/>
       <c r="I169" s="62"/>
       <c r="J169" s="62"/>
       <c r="K169" s="62"/>
@@ -14110,13 +13979,15 @@
       <c r="M169" s="62"/>
       <c r="N169" s="62"/>
       <c r="O169" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="P169" s="62"/>
-      <c r="Q169" s="62"/>
-      <c r="R169" s="62" t="s">
-        <v>175</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P169" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q169" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="R169" s="62"/>
       <c r="S169" s="62"/>
       <c r="T169" s="62"/>
       <c r="U169" s="62"/>
@@ -14124,7 +13995,7 @@
       <c r="W169" s="62"/>
       <c r="X169" s="63"/>
       <c r="Y169" s="81" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:25">
@@ -14401,8 +14272,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Z1048576">
-    <sortState ref="A2:Z177">
-      <sortCondition ref="P1:P1048576"/>
+    <sortState ref="A21:Z169">
+      <sortCondition descending="1" ref="Y1:Y1048576"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Marionette_connections.xlsx
+++ b/Marionette_connections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="21820" windowWidth="10520" windowHeight="16280" tabRatio="400" activeTab="1"/>
+    <workbookView xWindow="2100" yWindow="21820" windowWidth="22540" windowHeight="16880" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="233">
   <si>
     <t>Pin number</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>USART_CK</t>
   </si>
 </sst>
 </file>
@@ -780,7 +783,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,6 +860,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF93CDDD"/>
         <bgColor rgb="FFB9CDE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1149,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1429,6 +1438,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -6664,22 +6677,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AMK177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="660" topLeftCell="A114" activePane="bottomLeft"/>
-      <selection sqref="A1:S1048576"/>
-      <selection pane="bottomLeft" activeCell="Y127" sqref="Y127"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="660" activePane="bottomLeft"/>
+      <selection activeCell="Q1" sqref="Q1:X1048576"/>
+      <selection pane="bottomLeft" activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="32"/>
     <col min="2" max="2" width="8.83203125" style="33" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="34" customWidth="1"/>
-    <col min="5" max="22" width="8.83203125" style="32" customWidth="1"/>
-    <col min="23" max="24" width="8.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="34" hidden="1" customWidth="1"/>
+    <col min="5" max="15" width="8.83203125" style="32" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="32" customWidth="1"/>
+    <col min="17" max="22" width="8.83203125" style="32" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="8.83203125" style="34" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="15.5" style="32" bestFit="1" customWidth="1"/>
     <col min="26" max="1025" width="8.83203125" style="32"/>
   </cols>
@@ -7760,7 +7776,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="58" customFormat="1">
+    <row r="2" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A2" s="52">
         <v>119</v>
       </c>
@@ -7803,7 +7819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="58" customFormat="1">
+    <row r="3" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A3" s="59">
         <v>122</v>
       </c>
@@ -7844,7 +7860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="58" customFormat="1">
+    <row r="4" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A4" s="59">
         <v>123</v>
       </c>
@@ -7885,7 +7901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" s="58" customFormat="1">
+    <row r="5" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A5" s="59">
         <v>121</v>
       </c>
@@ -7924,7 +7940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" s="58" customFormat="1">
+    <row r="6" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A6" s="59">
         <v>165</v>
       </c>
@@ -7963,7 +7979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" s="58" customFormat="1">
+    <row r="7" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A7" s="59">
         <v>120</v>
       </c>
@@ -8002,7 +8018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" s="58" customFormat="1">
+    <row r="8" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A8" s="59">
         <v>164</v>
       </c>
@@ -8043,7 +8059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" s="58" customFormat="1">
+    <row r="9" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A9" s="59">
         <v>50</v>
       </c>
@@ -8092,13 +8108,13 @@
     </row>
     <row r="10" spans="1:1024" s="58" customFormat="1">
       <c r="A10" s="59">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>179</v>
       </c>
       <c r="C10" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="61"/>
       <c r="E10" s="62"/>
@@ -8113,7 +8129,7 @@
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
       <c r="P10" s="62" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
@@ -8123,14 +8139,14 @@
       <c r="V10" s="62"/>
       <c r="W10" s="62"/>
       <c r="X10" s="63"/>
-      <c r="Y10" s="64" t="s">
-        <v>18</v>
+      <c r="Y10" s="98" t="s">
+        <v>154</v>
       </c>
       <c r="Z10" s="58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" s="58" customFormat="1">
+    <row r="11" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A11" s="59">
         <v>40</v>
       </c>
@@ -8177,7 +8193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" s="58" customFormat="1">
+    <row r="12" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A12" s="59">
         <v>145</v>
       </c>
@@ -8217,7 +8233,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" s="58" customFormat="1">
+    <row r="13" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A13" s="59">
         <v>41</v>
       </c>
@@ -8266,7 +8282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" s="58" customFormat="1">
+    <row r="14" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A14" s="59">
         <v>146</v>
       </c>
@@ -8306,7 +8322,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" s="58" customFormat="1">
+    <row r="15" spans="1:1024" s="58" customFormat="1" hidden="1">
       <c r="A15" s="59">
         <v>47</v>
       </c>
@@ -8386,14 +8402,14 @@
       <c r="V16" s="62"/>
       <c r="W16" s="62"/>
       <c r="X16" s="63"/>
-      <c r="Y16" s="68" t="s">
-        <v>18</v>
+      <c r="Y16" s="98" t="s">
+        <v>156</v>
       </c>
       <c r="Z16" s="58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="58" customFormat="1">
+    <row r="17" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A17" s="70">
         <v>42</v>
       </c>
@@ -8440,13 +8456,13 @@
     </row>
     <row r="18" spans="1:26" s="58" customFormat="1">
       <c r="A18" s="52">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B18" s="53" t="s">
         <v>179</v>
       </c>
       <c r="C18" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
@@ -8461,7 +8477,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="55"/>
       <c r="P18" s="55" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="55"/>
       <c r="R18" s="55"/>
@@ -8471,14 +8487,14 @@
       <c r="V18" s="55"/>
       <c r="W18" s="55"/>
       <c r="X18" s="56"/>
-      <c r="Y18" s="68" t="s">
-        <v>18</v>
+      <c r="Y18" s="98" t="s">
+        <v>232</v>
       </c>
       <c r="Z18" s="58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="58" customFormat="1">
+    <row r="19" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A19" s="59">
         <v>92</v>
       </c>
@@ -8527,15 +8543,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="58" customFormat="1">
+    <row r="20" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A20" s="59">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C20" s="14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20" s="61"/>
       <c r="E20" s="62"/>
@@ -8550,7 +8566,7 @@
       <c r="N20" s="62"/>
       <c r="O20" s="62"/>
       <c r="P20" s="62" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
@@ -8563,11 +8579,8 @@
       <c r="Y20" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="Z20" s="58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" s="58" customFormat="1">
+    </row>
+    <row r="21" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A21" s="59">
         <v>116</v>
       </c>
@@ -8606,7 +8619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="58" customFormat="1">
+    <row r="22" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A22" s="59">
         <v>93</v>
       </c>
@@ -8653,7 +8666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="58" customFormat="1">
+    <row r="23" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A23" s="59">
         <v>99</v>
       </c>
@@ -8693,7 +8706,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="58" customFormat="1">
+    <row r="24" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A24" s="59">
         <v>94</v>
       </c>
@@ -8734,7 +8747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="58" customFormat="1">
+    <row r="25" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A25" s="59">
         <v>100</v>
       </c>
@@ -8774,7 +8787,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="58" customFormat="1">
+    <row r="26" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A26" s="59">
         <v>80</v>
       </c>
@@ -8821,13 +8834,13 @@
     </row>
     <row r="27" spans="1:26" s="58" customFormat="1">
       <c r="A27" s="59">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="60" t="s">
         <v>179</v>
       </c>
       <c r="C27" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -8842,7 +8855,7 @@
       <c r="N27" s="62"/>
       <c r="O27" s="62"/>
       <c r="P27" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
@@ -8852,14 +8865,14 @@
       <c r="V27" s="62"/>
       <c r="W27" s="62"/>
       <c r="X27" s="63"/>
-      <c r="Y27" s="68" t="s">
+      <c r="Y27" s="97" t="s">
         <v>18</v>
       </c>
       <c r="Z27" s="58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="58" customFormat="1">
+    <row r="28" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A28" s="59">
         <v>115</v>
       </c>
@@ -8898,7 +8911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="58" customFormat="1">
+    <row r="29" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A29" s="59">
         <v>79</v>
       </c>
@@ -8945,13 +8958,13 @@
     </row>
     <row r="30" spans="1:26" s="58" customFormat="1">
       <c r="A30" s="59">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="60" t="s">
         <v>179</v>
       </c>
       <c r="C30" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="61"/>
       <c r="E30" s="62"/>
@@ -8966,7 +8979,7 @@
       <c r="N30" s="62"/>
       <c r="O30" s="62"/>
       <c r="P30" s="62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
@@ -8983,7 +8996,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="58" customFormat="1">
+    <row r="31" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A31" s="59">
         <v>168</v>
       </c>
@@ -9026,15 +9039,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="58" customFormat="1">
+    <row r="32" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A32" s="59">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B32" s="60" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" s="61"/>
       <c r="E32" s="62"/>
@@ -9049,7 +9062,7 @@
       <c r="N32" s="62"/>
       <c r="O32" s="62"/>
       <c r="P32" s="62" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
@@ -9063,7 +9076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="58" customFormat="1">
+    <row r="33" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A33" s="70">
         <v>167</v>
       </c>
@@ -9106,7 +9119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="58" customFormat="1">
+    <row r="34" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A34" s="52">
         <v>156</v>
       </c>
@@ -9147,7 +9160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="58" customFormat="1">
+    <row r="35" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A35" s="59">
         <v>160</v>
       </c>
@@ -9184,7 +9197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="58" customFormat="1">
+    <row r="36" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A36" s="59">
         <v>112</v>
       </c>
@@ -9223,7 +9236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="58" customFormat="1">
+    <row r="37" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A37" s="59">
         <v>155</v>
       </c>
@@ -9260,7 +9273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="58" customFormat="1">
+    <row r="38" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A38" s="59">
         <v>140</v>
       </c>
@@ -9303,15 +9316,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="58" customFormat="1">
+    <row r="39" spans="1:26" s="58" customFormat="1">
       <c r="A39" s="59">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C39" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" s="61"/>
       <c r="E39" s="62"/>
@@ -9326,7 +9339,7 @@
       <c r="N39" s="62"/>
       <c r="O39" s="62"/>
       <c r="P39" s="62" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
@@ -9339,8 +9352,11 @@
       <c r="Y39" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" s="58" customFormat="1">
+      <c r="Z39" s="58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A40" s="59">
         <v>139</v>
       </c>
@@ -9383,7 +9399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="58" customFormat="1">
+    <row r="41" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A41" s="59">
         <v>157</v>
       </c>
@@ -9424,7 +9440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="58" customFormat="1">
+    <row r="42" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A42" s="59">
         <v>1</v>
       </c>
@@ -9461,7 +9477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="58" customFormat="1">
+    <row r="43" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A43" s="59">
         <v>2</v>
       </c>
@@ -9496,7 +9512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="58" customFormat="1">
+    <row r="44" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A44" s="59">
         <v>3</v>
       </c>
@@ -9531,7 +9547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="58" customFormat="1">
+    <row r="45" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A45" s="59">
         <v>4</v>
       </c>
@@ -9566,7 +9582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="58" customFormat="1">
+    <row r="46" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A46" s="59">
         <v>5</v>
       </c>
@@ -9601,7 +9617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="58" customFormat="1">
+    <row r="47" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A47" s="59">
         <v>6</v>
       </c>
@@ -9632,7 +9648,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="58" customFormat="1">
+    <row r="48" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A48" s="59">
         <v>7</v>
       </c>
@@ -9667,7 +9683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="58" customFormat="1">
+    <row r="49" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A49" s="70">
         <v>8</v>
       </c>
@@ -9702,7 +9718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="58" customFormat="1">
+    <row r="50" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A50" s="52">
         <v>9</v>
       </c>
@@ -9737,7 +9753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="58" customFormat="1">
+    <row r="51" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A51" s="59">
         <v>10</v>
       </c>
@@ -9772,7 +9788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="58" customFormat="1">
+    <row r="52" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A52" s="59">
         <v>11</v>
       </c>
@@ -9809,7 +9825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="58" customFormat="1">
+    <row r="53" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A53" s="59">
         <v>12</v>
       </c>
@@ -9846,7 +9862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:25" s="58" customFormat="1">
+    <row r="54" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A54" s="59">
         <v>13</v>
       </c>
@@ -9883,7 +9899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="58" customFormat="1">
+    <row r="55" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A55" s="59">
         <v>14</v>
       </c>
@@ -9914,7 +9930,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="58" customFormat="1">
+    <row r="56" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A56" s="59">
         <v>15</v>
       </c>
@@ -9945,7 +9961,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="58" customFormat="1">
+    <row r="57" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A57" s="59">
         <v>16</v>
       </c>
@@ -9982,7 +9998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:25" s="58" customFormat="1">
+    <row r="58" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A58" s="59">
         <v>17</v>
       </c>
@@ -10019,7 +10035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:25" s="58" customFormat="1">
+    <row r="59" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A59" s="59">
         <v>18</v>
       </c>
@@ -10056,7 +10072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:25" s="58" customFormat="1">
+    <row r="60" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A60" s="59">
         <v>19</v>
       </c>
@@ -10093,7 +10109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:25" s="58" customFormat="1">
+    <row r="61" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A61" s="59">
         <v>20</v>
       </c>
@@ -10130,7 +10146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="58" customFormat="1">
+    <row r="62" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A62" s="59">
         <v>21</v>
       </c>
@@ -10167,7 +10183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="58" customFormat="1">
+    <row r="63" spans="1:25" s="58" customFormat="1" hidden="1">
       <c r="A63" s="59">
         <v>22</v>
       </c>
@@ -10198,7 +10214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" hidden="1">
       <c r="A64" s="59">
         <v>23</v>
       </c>
@@ -10229,7 +10245,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" hidden="1">
       <c r="A65" s="70">
         <v>24</v>
       </c>
@@ -10266,7 +10282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" hidden="1">
       <c r="A66" s="52">
         <v>25</v>
       </c>
@@ -10303,7 +10319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" hidden="1">
       <c r="A67" s="59">
         <v>26</v>
       </c>
@@ -10340,7 +10356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" hidden="1">
       <c r="A68" s="59">
         <v>27</v>
       </c>
@@ -10377,7 +10393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" hidden="1">
       <c r="A69" s="59">
         <v>28</v>
       </c>
@@ -10414,7 +10430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" hidden="1">
       <c r="A70" s="59">
         <v>29</v>
       </c>
@@ -10449,7 +10465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" hidden="1">
       <c r="A71" s="59">
         <v>30</v>
       </c>
@@ -10484,7 +10500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" hidden="1">
       <c r="A72" s="59">
         <v>31</v>
       </c>
@@ -10515,7 +10531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" hidden="1">
       <c r="A73" s="59">
         <v>32</v>
       </c>
@@ -10558,7 +10574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" hidden="1">
       <c r="A74" s="59">
         <v>33</v>
       </c>
@@ -10601,7 +10617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" hidden="1">
       <c r="A75" s="59">
         <v>34</v>
       </c>
@@ -10648,7 +10664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" hidden="1">
       <c r="A76" s="59">
         <v>35</v>
       </c>
@@ -10695,7 +10711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" hidden="1">
       <c r="A77" s="59">
         <v>36</v>
       </c>
@@ -10726,7 +10742,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" hidden="1">
       <c r="A78" s="59">
         <v>37</v>
       </c>
@@ -10757,7 +10773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" hidden="1">
       <c r="A79" s="59">
         <v>38</v>
       </c>
@@ -10788,7 +10804,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" hidden="1">
       <c r="A80" s="59">
         <v>39</v>
       </c>
@@ -10819,7 +10835,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" hidden="1">
       <c r="A81" s="70">
         <v>43</v>
       </c>
@@ -10856,7 +10872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" hidden="1">
       <c r="A82" s="52">
         <v>44</v>
       </c>
@@ -10893,7 +10909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" hidden="1">
       <c r="A83" s="59">
         <v>45</v>
       </c>
@@ -10932,7 +10948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" hidden="1">
       <c r="A84" s="59">
         <v>46</v>
       </c>
@@ -10969,7 +10985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" hidden="1">
       <c r="A85" s="59">
         <v>48</v>
       </c>
@@ -11000,7 +11016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" hidden="1">
       <c r="A86" s="59">
         <v>49</v>
       </c>
@@ -11031,7 +11047,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" hidden="1">
       <c r="A87" s="59">
         <v>51</v>
       </c>
@@ -11076,7 +11092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" hidden="1">
       <c r="A88" s="59">
         <v>52</v>
       </c>
@@ -11117,7 +11133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" hidden="1">
       <c r="A89" s="59">
         <v>53</v>
       </c>
@@ -11162,7 +11178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" hidden="1">
       <c r="A90" s="59">
         <v>54</v>
       </c>
@@ -11205,7 +11221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" hidden="1">
       <c r="A91" s="59">
         <v>55</v>
       </c>
@@ -11248,7 +11264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" hidden="1">
       <c r="A92" s="59">
         <v>56</v>
       </c>
@@ -11291,7 +11307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" hidden="1">
       <c r="A93" s="59">
         <v>57</v>
       </c>
@@ -11334,7 +11350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" hidden="1">
       <c r="A94" s="59">
         <v>58</v>
       </c>
@@ -11369,7 +11385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" hidden="1">
       <c r="A95" s="59">
         <v>59</v>
       </c>
@@ -11404,7 +11420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" hidden="1">
       <c r="A96" s="59">
         <v>60</v>
       </c>
@@ -11439,7 +11455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" hidden="1">
       <c r="A97" s="70">
         <v>61</v>
       </c>
@@ -11470,7 +11486,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" hidden="1">
       <c r="A98" s="52">
         <v>62</v>
       </c>
@@ -11501,7 +11517,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" hidden="1">
       <c r="A99" s="59">
         <v>63</v>
       </c>
@@ -11536,7 +11552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" hidden="1">
       <c r="A100" s="59">
         <v>64</v>
       </c>
@@ -11571,7 +11587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" hidden="1">
       <c r="A101" s="59">
         <v>65</v>
       </c>
@@ -11606,7 +11622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" hidden="1">
       <c r="A102" s="59">
         <v>66</v>
       </c>
@@ -11641,7 +11657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" hidden="1">
       <c r="A103" s="59">
         <v>67</v>
       </c>
@@ -11676,7 +11692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" hidden="1">
       <c r="A104" s="59">
         <v>68</v>
       </c>
@@ -11711,7 +11727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" hidden="1">
       <c r="A105" s="59">
         <v>69</v>
       </c>
@@ -11746,7 +11762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" hidden="1">
       <c r="A106" s="59">
         <v>70</v>
       </c>
@@ -11781,7 +11797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" hidden="1">
       <c r="A107" s="59">
         <v>71</v>
       </c>
@@ -11812,7 +11828,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" hidden="1">
       <c r="A108" s="59">
         <v>72</v>
       </c>
@@ -11843,7 +11859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" hidden="1">
       <c r="A109" s="59">
         <v>73</v>
       </c>
@@ -11878,7 +11894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" hidden="1">
       <c r="A110" s="59">
         <v>74</v>
       </c>
@@ -11913,7 +11929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" hidden="1">
       <c r="A111" s="59">
         <v>75</v>
       </c>
@@ -11948,7 +11964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" hidden="1">
       <c r="A112" s="59">
         <v>76</v>
       </c>
@@ -11983,7 +11999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" hidden="1">
       <c r="A113" s="70">
         <v>77</v>
       </c>
@@ -12018,7 +12034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" hidden="1">
       <c r="A114" s="52">
         <v>78</v>
       </c>
@@ -12053,7 +12069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" hidden="1">
       <c r="A115" s="59">
         <v>81</v>
       </c>
@@ -12084,7 +12100,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" hidden="1">
       <c r="A116" s="59">
         <v>82</v>
       </c>
@@ -12115,7 +12131,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" hidden="1">
       <c r="A117" s="59">
         <v>83</v>
       </c>
@@ -12154,7 +12170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" hidden="1">
       <c r="A118" s="59">
         <v>84</v>
       </c>
@@ -12193,7 +12209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" hidden="1">
       <c r="A119" s="59">
         <v>85</v>
       </c>
@@ -12230,7 +12246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" hidden="1">
       <c r="A120" s="59">
         <v>86</v>
       </c>
@@ -12267,7 +12283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" hidden="1">
       <c r="A121" s="59">
         <v>87</v>
       </c>
@@ -12302,7 +12318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" hidden="1">
       <c r="A122" s="59">
         <v>88</v>
       </c>
@@ -12337,7 +12353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" hidden="1">
       <c r="A123" s="59">
         <v>89</v>
       </c>
@@ -12372,7 +12388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" hidden="1">
       <c r="A124" s="59">
         <v>90</v>
       </c>
@@ -12403,7 +12419,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" hidden="1">
       <c r="A125" s="59">
         <v>91</v>
       </c>
@@ -12434,7 +12450,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" hidden="1">
       <c r="A126" s="59">
         <v>95</v>
       </c>
@@ -12475,7 +12491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" hidden="1">
       <c r="A127" s="59">
         <v>101</v>
       </c>
@@ -12510,7 +12526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" hidden="1">
       <c r="A128" s="59">
         <v>102</v>
       </c>
@@ -12541,7 +12557,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" hidden="1">
       <c r="A129" s="70">
         <v>103</v>
       </c>
@@ -12572,7 +12588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" hidden="1">
       <c r="A130" s="83">
         <v>104</v>
       </c>
@@ -12607,7 +12623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" hidden="1">
       <c r="A131" s="59">
         <v>105</v>
       </c>
@@ -12642,7 +12658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" hidden="1">
       <c r="A132" s="59">
         <v>106</v>
       </c>
@@ -12677,7 +12693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" hidden="1">
       <c r="A133" s="59">
         <v>107</v>
       </c>
@@ -12712,7 +12728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" hidden="1">
       <c r="A134" s="59">
         <v>108</v>
       </c>
@@ -12747,7 +12763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" hidden="1">
       <c r="A135" s="59">
         <v>109</v>
       </c>
@@ -12782,7 +12798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" hidden="1">
       <c r="A136" s="59">
         <v>110</v>
       </c>
@@ -12817,7 +12833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" hidden="1">
       <c r="A137" s="59">
         <v>113</v>
       </c>
@@ -12848,7 +12864,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" hidden="1">
       <c r="A138" s="59">
         <v>114</v>
       </c>
@@ -12879,7 +12895,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" hidden="1">
       <c r="A139" s="59">
         <v>118</v>
       </c>
@@ -12920,7 +12936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" hidden="1">
       <c r="A140" s="59">
         <v>124</v>
       </c>
@@ -12957,7 +12973,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" hidden="1">
       <c r="A141" s="59">
         <v>125</v>
       </c>
@@ -12988,7 +13004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" hidden="1">
       <c r="A142" s="59">
         <v>126</v>
       </c>
@@ -13019,7 +13035,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" hidden="1">
       <c r="A143" s="59">
         <v>127</v>
       </c>
@@ -13050,7 +13066,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" hidden="1">
       <c r="A144" s="59">
         <v>128</v>
       </c>
@@ -13087,7 +13103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" hidden="1">
       <c r="A145" s="59">
         <v>129</v>
       </c>
@@ -13122,7 +13138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" hidden="1">
       <c r="A146" s="59">
         <v>130</v>
       </c>
@@ -13157,7 +13173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:25">
+    <row r="147" spans="1:25" hidden="1">
       <c r="A147" s="59">
         <v>131</v>
       </c>
@@ -13194,7 +13210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:25" hidden="1">
       <c r="A148" s="90">
         <v>132</v>
       </c>
@@ -13231,7 +13247,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:25">
+    <row r="149" spans="1:25" hidden="1">
       <c r="A149" s="90">
         <v>133</v>
       </c>
@@ -13268,7 +13284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:25">
+    <row r="150" spans="1:25" hidden="1">
       <c r="A150" s="90">
         <v>134</v>
       </c>
@@ -13305,7 +13321,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" hidden="1">
       <c r="A151" s="59">
         <v>135</v>
       </c>
@@ -13336,7 +13352,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" hidden="1">
       <c r="A152" s="59">
         <v>136</v>
       </c>
@@ -13367,7 +13383,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" hidden="1">
       <c r="A153" s="59">
         <v>137</v>
       </c>
@@ -13404,7 +13420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" hidden="1">
       <c r="A154" s="59">
         <v>138</v>
       </c>
@@ -13445,7 +13461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" hidden="1">
       <c r="A155" s="59">
         <v>142</v>
       </c>
@@ -13482,7 +13498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" hidden="1">
       <c r="A156" s="59">
         <v>143</v>
       </c>
@@ -13521,7 +13537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" hidden="1">
       <c r="A157" s="59">
         <v>117</v>
       </c>
@@ -13560,7 +13576,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" hidden="1">
       <c r="A158" s="59">
         <v>148</v>
       </c>
@@ -13591,7 +13607,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" hidden="1">
       <c r="A159" s="59">
         <v>149</v>
       </c>
@@ -13622,7 +13638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="160" spans="1:25">
+    <row r="160" spans="1:25" hidden="1">
       <c r="A160" s="59">
         <v>153</v>
       </c>
@@ -13657,7 +13673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" hidden="1">
       <c r="A161" s="59">
         <v>154</v>
       </c>
@@ -13696,7 +13712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" hidden="1">
       <c r="A162" s="59">
         <v>158</v>
       </c>
@@ -13727,7 +13743,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" hidden="1">
       <c r="A163" s="59">
         <v>159</v>
       </c>
@@ -13758,7 +13774,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" hidden="1">
       <c r="A164" s="59">
         <v>161</v>
       </c>
@@ -13799,7 +13815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" hidden="1">
       <c r="A165" s="59">
         <v>162</v>
       </c>
@@ -13840,7 +13856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" hidden="1">
       <c r="A166" s="59">
         <v>163</v>
       </c>
@@ -13887,7 +13903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" hidden="1">
       <c r="A167" s="59">
         <v>166</v>
       </c>
@@ -13918,7 +13934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:25" hidden="1">
       <c r="A168" s="59">
         <v>144</v>
       </c>
@@ -13955,7 +13971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" hidden="1">
       <c r="A169" s="59">
         <v>141</v>
       </c>
@@ -13998,7 +14014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:25" hidden="1">
       <c r="A170" s="59">
         <v>169</v>
       </c>
@@ -14033,7 +14049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" hidden="1">
       <c r="A171" s="59">
         <v>170</v>
       </c>
@@ -14068,7 +14084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:25" hidden="1">
       <c r="A172" s="59">
         <v>171</v>
       </c>
@@ -14099,7 +14115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" hidden="1">
       <c r="A173" s="59">
         <v>172</v>
       </c>
@@ -14130,7 +14146,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" hidden="1">
       <c r="A174" s="59">
         <v>173</v>
       </c>
@@ -14165,7 +14181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" hidden="1">
       <c r="A175" s="59">
         <v>174</v>
       </c>
@@ -14200,7 +14216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" hidden="1">
       <c r="A176" s="59">
         <v>175</v>
       </c>
@@ -14235,7 +14251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:25" hidden="1">
       <c r="A177" s="70">
         <v>176</v>
       </c>
@@ -14272,8 +14288,29 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Z1048576">
-    <sortState ref="A21:Z169">
-      <sortCondition descending="1" ref="Y1:Y1048576"/>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="D"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="USART1_CK"/>
+        <filter val="USART1_RX"/>
+        <filter val="USART1_TX"/>
+        <filter val="USART2_CK"/>
+        <filter val="USART2_RX"/>
+        <filter val="USART2_TX"/>
+        <filter val="USART3_CK"/>
+        <filter val="USART3_RX"/>
+        <filter val="USART3_TX"/>
+        <filter val="USART6_CK"/>
+        <filter val="USART6_RX"/>
+        <filter val="USART6_TX"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A10:Z41">
+      <sortCondition ref="C1:C1048576"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Marionette_connections.xlsx
+++ b/Marionette_connections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="21820" windowWidth="22540" windowHeight="16880" tabRatio="400" activeTab="1"/>
+    <workbookView xWindow="1460" yWindow="22660" windowWidth="22540" windowHeight="16880" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configs" sheetId="1" r:id="rId1"/>

--- a/Marionette_connections.xlsx
+++ b/Marionette_connections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="2320" windowWidth="21840" windowHeight="16840" tabRatio="400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8440" windowHeight="17540" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="264">
   <si>
     <t>Pin number</t>
   </si>
@@ -723,7 +723,100 @@
     <t>x</t>
   </si>
   <si>
-    <t>USART_CK</t>
+    <t>ADC1/2/3_IN2</t>
+  </si>
+  <si>
+    <t>ADC1/2_IN6</t>
+  </si>
+  <si>
+    <t>ADC1/2_IN7</t>
+  </si>
+  <si>
+    <t>SWO</t>
+  </si>
+  <si>
+    <t>ADC1/2/3_IN11</t>
+  </si>
+  <si>
+    <t>ADC1/2/3_IN13</t>
+  </si>
+  <si>
+    <t>ADC1/2_IN14</t>
+  </si>
+  <si>
+    <t>ADC1/2_IN15</t>
+  </si>
+  <si>
+    <t>SDIO_D2-SPI3_SCK</t>
+  </si>
+  <si>
+    <t>SDIO_CK-SPI3_MOSI</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>GPIO - CAN ENABLE</t>
+  </si>
+  <si>
+    <t>ADC3_IN9</t>
+  </si>
+  <si>
+    <t>ADC3_IN14</t>
+  </si>
+  <si>
+    <t>ADC3_IN15</t>
+  </si>
+  <si>
+    <t>ADC3_IN4</t>
+  </si>
+  <si>
+    <t>ADC3_IN5</t>
+  </si>
+  <si>
+    <t>ADC3_IN6</t>
+  </si>
+  <si>
+    <t>ADC3_IN7</t>
+  </si>
+  <si>
+    <t>ADC3_IN8</t>
+  </si>
+  <si>
+    <t>GPIO - LED3</t>
+  </si>
+  <si>
+    <t>GPIO - LED4</t>
+  </si>
+  <si>
+    <t>GPIO - LED5</t>
+  </si>
+  <si>
+    <t>GPIO - LED6</t>
+  </si>
+  <si>
+    <t>GPIO - LED7</t>
+  </si>
+  <si>
+    <t>GPIO - LED8</t>
+  </si>
+  <si>
+    <t>GPIO - LED9</t>
+  </si>
+  <si>
+    <t>GPIO - SDIO_PWR</t>
+  </si>
+  <si>
+    <t>I2C1_SCL - mBUS</t>
+  </si>
+  <si>
+    <t>I2C1_SDA - mBUS</t>
+  </si>
+  <si>
+    <t>GPIO - ULPI_!RST_B</t>
+  </si>
+  <si>
+    <t>GPIO - SD_DETECT</t>
   </si>
 </sst>
 </file>
@@ -783,7 +876,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,12 +953,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF93CDDD"/>
         <bgColor rgb="FFB9CDE5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1158,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1434,10 +1521,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2023,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6679,10 +6762,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK177"/>
   <sheetViews>
-    <sheetView topLeftCell="A1048576" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1048576" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="660" activePane="bottomLeft"/>
-      <selection activeCell="C1" sqref="C1:Y1048576"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection activeCell="D1048576" sqref="D1:X1048576"/>
+      <selection pane="bottomLeft" activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6690,9 +6773,9 @@
     <col min="1" max="1" width="8.83203125" style="32"/>
     <col min="2" max="2" width="8.83203125" style="33" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="34" customWidth="1"/>
-    <col min="5" max="22" width="8.83203125" style="32" customWidth="1"/>
-    <col min="23" max="24" width="8.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="34" hidden="1" customWidth="1"/>
+    <col min="5" max="22" width="8.83203125" style="32" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="8.83203125" style="34" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="15.5" style="32" bestFit="1" customWidth="1"/>
     <col min="26" max="1025" width="8.83203125" style="32"/>
   </cols>
@@ -7816,7 +7899,7 @@
       </c>
       <c r="W2" s="55"/>
       <c r="X2" s="56"/>
-      <c r="Y2" s="98" t="s">
+      <c r="Y2" s="97" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7911,7 +7994,7 @@
       <c r="W4" s="61"/>
       <c r="X4" s="62"/>
       <c r="Y4" s="75" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:1024" s="57" customFormat="1">
@@ -8091,7 +8174,7 @@
       <c r="W8" s="61"/>
       <c r="X8" s="62"/>
       <c r="Y8" s="75" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:1024" s="57" customFormat="1">
@@ -8136,7 +8219,7 @@
       <c r="W9" s="61"/>
       <c r="X9" s="62"/>
       <c r="Y9" s="75" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:1024" s="57" customFormat="1">
@@ -8256,8 +8339,8 @@
       <c r="V12" s="61"/>
       <c r="W12" s="61"/>
       <c r="X12" s="62"/>
-      <c r="Y12" s="81" t="s">
-        <v>39</v>
+      <c r="Y12" s="96" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:1024" s="57" customFormat="1">
@@ -8616,7 +8699,7 @@
       <c r="W21" s="61"/>
       <c r="X21" s="62"/>
       <c r="Y21" s="67" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="57" customFormat="1">
@@ -8657,7 +8740,7 @@
       <c r="W22" s="61"/>
       <c r="X22" s="62"/>
       <c r="Y22" s="67" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:25" s="57" customFormat="1">
@@ -8745,7 +8828,7 @@
       <c r="W24" s="61"/>
       <c r="X24" s="62"/>
       <c r="Y24" s="74" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:25" s="57" customFormat="1">
@@ -8784,7 +8867,7 @@
       <c r="W25" s="61"/>
       <c r="X25" s="62"/>
       <c r="Y25" s="74" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="57" customFormat="1">
@@ -9224,7 +9307,7 @@
       <c r="W35" s="61"/>
       <c r="X35" s="62"/>
       <c r="Y35" s="75" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="57" customFormat="1">
@@ -9318,7 +9401,7 @@
       <c r="W37" s="61"/>
       <c r="X37" s="62"/>
       <c r="Y37" s="75" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:25" s="57" customFormat="1">
@@ -9361,7 +9444,7 @@
       <c r="W38" s="61"/>
       <c r="X38" s="62"/>
       <c r="Y38" s="75" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="57" customFormat="1">
@@ -9404,7 +9487,7 @@
       <c r="W39" s="61"/>
       <c r="X39" s="62"/>
       <c r="Y39" s="75" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="57" customFormat="1">
@@ -9482,7 +9565,7 @@
       <c r="W41" s="61"/>
       <c r="X41" s="62"/>
       <c r="Y41" s="96" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:25" s="57" customFormat="1">
@@ -9605,7 +9688,7 @@
       <c r="W44" s="61"/>
       <c r="X44" s="62"/>
       <c r="Y44" s="80" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:25" s="57" customFormat="1">
@@ -9691,7 +9774,7 @@
       <c r="W46" s="61"/>
       <c r="X46" s="62"/>
       <c r="Y46" s="80" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:25" s="57" customFormat="1">
@@ -9726,7 +9809,7 @@
       <c r="W47" s="61"/>
       <c r="X47" s="62"/>
       <c r="Y47" s="67" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:25" s="57" customFormat="1">
@@ -9761,7 +9844,7 @@
       <c r="W48" s="61"/>
       <c r="X48" s="62"/>
       <c r="Y48" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:26" s="57" customFormat="1">
@@ -9796,7 +9879,7 @@
       <c r="W49" s="72"/>
       <c r="X49" s="73"/>
       <c r="Y49" s="67" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:26" s="57" customFormat="1">
@@ -10025,8 +10108,8 @@
       <c r="V55" s="61"/>
       <c r="W55" s="61"/>
       <c r="X55" s="62"/>
-      <c r="Y55" s="97" t="s">
-        <v>154</v>
+      <c r="Y55" s="96" t="s">
+        <v>242</v>
       </c>
       <c r="Z55" s="57" t="s">
         <v>231</v>
@@ -10065,8 +10148,8 @@
       <c r="V56" s="61"/>
       <c r="W56" s="61"/>
       <c r="X56" s="62"/>
-      <c r="Y56" s="97" t="s">
-        <v>156</v>
+      <c r="Y56" s="96" t="s">
+        <v>18</v>
       </c>
       <c r="Z56" s="57" t="s">
         <v>231</v>
@@ -10105,8 +10188,8 @@
       <c r="V57" s="61"/>
       <c r="W57" s="61"/>
       <c r="X57" s="62"/>
-      <c r="Y57" s="97" t="s">
-        <v>232</v>
+      <c r="Y57" s="96" t="s">
+        <v>18</v>
       </c>
       <c r="Z57" s="57" t="s">
         <v>231</v>
@@ -11086,8 +11169,8 @@
       <c r="V84" s="61"/>
       <c r="W84" s="61"/>
       <c r="X84" s="62"/>
-      <c r="Y84" s="74" t="s">
-        <v>26</v>
+      <c r="Y84" s="96" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -11124,7 +11207,7 @@
       <c r="W85" s="61"/>
       <c r="X85" s="62"/>
       <c r="Y85" s="75" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -11161,7 +11244,7 @@
       <c r="W86" s="61"/>
       <c r="X86" s="62"/>
       <c r="Y86" s="75" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -11198,7 +11281,7 @@
       <c r="W87" s="61"/>
       <c r="X87" s="62"/>
       <c r="Y87" s="75" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -11235,7 +11318,7 @@
       <c r="W88" s="61"/>
       <c r="X88" s="62"/>
       <c r="Y88" s="75" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -11272,7 +11355,7 @@
       <c r="W89" s="61"/>
       <c r="X89" s="62"/>
       <c r="Y89" s="75" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -11309,7 +11392,7 @@
       <c r="W90" s="61"/>
       <c r="X90" s="62"/>
       <c r="Y90" s="75" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -11346,7 +11429,7 @@
       <c r="W91" s="61"/>
       <c r="X91" s="62"/>
       <c r="Y91" s="75" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -11383,7 +11466,7 @@
       <c r="W92" s="61"/>
       <c r="X92" s="62"/>
       <c r="Y92" s="75" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -11916,7 +11999,7 @@
       <c r="W107" s="61"/>
       <c r="X107" s="62"/>
       <c r="Y107" s="63" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -11951,7 +12034,7 @@
       <c r="W108" s="61"/>
       <c r="X108" s="62"/>
       <c r="Y108" s="67" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:25">
@@ -11989,8 +12072,8 @@
       <c r="V109" s="61"/>
       <c r="W109" s="61"/>
       <c r="X109" s="62"/>
-      <c r="Y109" s="63" t="s">
-        <v>18</v>
+      <c r="Y109" s="67" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:25">
@@ -12027,7 +12110,7 @@
       <c r="W110" s="61"/>
       <c r="X110" s="62"/>
       <c r="Y110" s="67" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:25">
@@ -12068,7 +12151,7 @@
       <c r="W111" s="61"/>
       <c r="X111" s="62"/>
       <c r="Y111" s="67" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:25">
@@ -12109,7 +12192,7 @@
       <c r="W112" s="61"/>
       <c r="X112" s="62"/>
       <c r="Y112" s="67" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -12145,8 +12228,8 @@
       <c r="V113" s="72"/>
       <c r="W113" s="72"/>
       <c r="X113" s="73"/>
-      <c r="Y113" s="63" t="s">
-        <v>18</v>
+      <c r="Y113" s="67" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:25">
@@ -12517,8 +12600,8 @@
       <c r="V123" s="61"/>
       <c r="W123" s="61"/>
       <c r="X123" s="62"/>
-      <c r="Y123" s="74" t="s">
-        <v>29</v>
+      <c r="Y123" s="96" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:25">
@@ -13127,7 +13210,7 @@
       <c r="W140" s="61"/>
       <c r="X140" s="62"/>
       <c r="Y140" s="67" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:25">

--- a/Marionette_connections.xlsx
+++ b/Marionette_connections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8440" windowHeight="17540" tabRatio="400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="17560" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="269">
   <si>
     <t>Pin number</t>
   </si>
@@ -817,6 +817,21 @@
   </si>
   <si>
     <t>GPIO - SD_DETECT</t>
+  </si>
+  <si>
+    <t>SDIO_D3-SPI3_MISO</t>
+  </si>
+  <si>
+    <t>GPIO - LED2</t>
+  </si>
+  <si>
+    <t>GPIO - LED1_R</t>
+  </si>
+  <si>
+    <t>GPIO - LED1_G</t>
+  </si>
+  <si>
+    <t>GPIO - LED1_B</t>
   </si>
 </sst>
 </file>
@@ -6762,10 +6777,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1048576" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="660" activePane="bottomLeft"/>
-      <selection activeCell="D1048576" sqref="D1:X1048576"/>
-      <selection pane="bottomLeft" activeCell="Y42" sqref="Y42"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="660" topLeftCell="A115" activePane="bottomLeft"/>
+      <selection activeCell="D2" sqref="D1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="Y66" sqref="Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9179,7 +9194,7 @@
       <c r="V32" s="61"/>
       <c r="W32" s="61"/>
       <c r="X32" s="62"/>
-      <c r="Y32" s="63" t="s">
+      <c r="Y32" s="67" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9731,7 +9746,7 @@
       <c r="W45" s="61"/>
       <c r="X45" s="62"/>
       <c r="Y45" s="80" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:25" s="57" customFormat="1">
@@ -10189,7 +10204,7 @@
       <c r="W57" s="61"/>
       <c r="X57" s="62"/>
       <c r="Y57" s="96" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="Z57" s="57" t="s">
         <v>231</v>
@@ -10427,7 +10442,7 @@
       <c r="W63" s="61"/>
       <c r="X63" s="62"/>
       <c r="Y63" s="67" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:26">
@@ -10462,7 +10477,7 @@
       <c r="W64" s="61"/>
       <c r="X64" s="62"/>
       <c r="Y64" s="67" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -10497,7 +10512,7 @@
       <c r="W65" s="72"/>
       <c r="X65" s="73"/>
       <c r="Y65" s="67" t="s">
-        <v>18</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -11570,7 +11585,7 @@
       <c r="V95" s="61"/>
       <c r="W95" s="61"/>
       <c r="X95" s="62"/>
-      <c r="Y95" s="63" t="s">
+      <c r="Y95" s="67" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11605,7 +11620,7 @@
       <c r="V96" s="61"/>
       <c r="W96" s="61"/>
       <c r="X96" s="62"/>
-      <c r="Y96" s="63" t="s">
+      <c r="Y96" s="67" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11675,7 +11690,7 @@
       <c r="V98" s="55"/>
       <c r="W98" s="55"/>
       <c r="X98" s="56"/>
-      <c r="Y98" s="63" t="s">
+      <c r="Y98" s="67" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11745,7 +11760,7 @@
       <c r="V100" s="61"/>
       <c r="W100" s="61"/>
       <c r="X100" s="62"/>
-      <c r="Y100" s="63" t="s">
+      <c r="Y100" s="67" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11922,7 +11937,7 @@
       <c r="V105" s="61"/>
       <c r="W105" s="61"/>
       <c r="X105" s="62"/>
-      <c r="Y105" s="63" t="s">
+      <c r="Y105" s="67" t="s">
         <v>18</v>
       </c>
     </row>
